--- a/data/SSD_Equity.xlsx
+++ b/data/SSD_Equity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse Work PC\Documents\Rutgers\Adminstrative Documents\Job Market\Academic Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9CDD50-0567-4EF5-9EA1-0D30E4D65BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0B6FA1-4E43-4832-8122-6ABD6F6280D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Date</t>
+    <t>SSD</t>
   </si>
   <si>
-    <t>SSD</t>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -431,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B691"/>
+  <dimension ref="A1:B715"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -444,10 +444,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -455,7 +455,7 @@
         <v>22858</v>
       </c>
       <c r="B2">
-        <v>-1.5141126473833261E-4</v>
+        <v>-1.4494616295046449E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -463,7 +463,7 @@
         <v>22889</v>
       </c>
       <c r="B3">
-        <v>-7.5900534120044716E-3</v>
+        <v>-1.0231862710016909E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -471,7 +471,7 @@
         <v>22919</v>
       </c>
       <c r="B4">
-        <v>5.0897394312194449E-3</v>
+        <v>1.625312680964686E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -479,7 +479,7 @@
         <v>22950</v>
       </c>
       <c r="B5">
-        <v>-5.5129106173699149E-3</v>
+        <v>5.4389004352191931E-3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -487,7 +487,7 @@
         <v>22980</v>
       </c>
       <c r="B6">
-        <v>9.9126030321343983E-3</v>
+        <v>1.5821745869547401E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -495,7 +495,7 @@
         <v>23011</v>
       </c>
       <c r="B7">
-        <v>1.305190230551977E-2</v>
+        <v>5.8585118137276168E-3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -503,7 +503,7 @@
         <v>23042</v>
       </c>
       <c r="B8">
-        <v>-8.7846802447525477E-3</v>
+        <v>1.5680268575680031E-3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -511,7 +511,7 @@
         <v>23070</v>
       </c>
       <c r="B9">
-        <v>1.035257454920558E-2</v>
+        <v>3.9064751157749794E-3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -519,7 +519,7 @@
         <v>23101</v>
       </c>
       <c r="B10">
-        <v>5.5739142817292746E-3</v>
+        <v>8.4644785752174614E-3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -527,7 +527,7 @@
         <v>23131</v>
       </c>
       <c r="B11">
-        <v>-4.4352785621313492E-3</v>
+        <v>-8.983773372117046E-3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -535,7 +535,7 @@
         <v>23162</v>
       </c>
       <c r="B12">
-        <v>-1.2778538943201761E-3</v>
+        <v>-1.5122404455369311E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -543,7 +543,7 @@
         <v>23192</v>
       </c>
       <c r="B13">
-        <v>7.042734852555927E-3</v>
+        <v>-4.701265864973346E-3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -551,7 +551,7 @@
         <v>23223</v>
       </c>
       <c r="B14">
-        <v>1.6260108214271021E-4</v>
+        <v>4.113768406736208E-4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -559,7 +559,7 @@
         <v>23254</v>
       </c>
       <c r="B15">
-        <v>3.3507570977322969E-3</v>
+        <v>3.7254997688825268E-3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -567,7 +567,7 @@
         <v>23284</v>
       </c>
       <c r="B16">
-        <v>2.7763891379814689E-2</v>
+        <v>2.7400732811162658E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -575,7 +575,7 @@
         <v>23315</v>
       </c>
       <c r="B17">
-        <v>2.2863227870887261E-2</v>
+        <v>2.2326671986573739E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -583,7 +583,7 @@
         <v>23345</v>
       </c>
       <c r="B18">
-        <v>-4.3132612514412347E-3</v>
+        <v>-4.7151391333577989E-3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -591,7 +591,7 @@
         <v>23376</v>
       </c>
       <c r="B19">
-        <v>-4.1036042637487471E-3</v>
+        <v>-4.277576447371749E-3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -599,7 +599,7 @@
         <v>23407</v>
       </c>
       <c r="B20">
-        <v>-2.2535157666183428E-3</v>
+        <v>-2.9385255043361601E-3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -607,7 +607,7 @@
         <v>23436</v>
       </c>
       <c r="B21">
-        <v>-2.347237171652708E-4</v>
+        <v>-8.7150172332722126E-5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -615,7 +615,7 @@
         <v>23467</v>
       </c>
       <c r="B22">
-        <v>-6.5574402877156823E-4</v>
+        <v>-4.6923993498234831E-4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -623,7 +623,7 @@
         <v>23497</v>
       </c>
       <c r="B23">
-        <v>-1.7033045887638779E-2</v>
+        <v>-1.7199787316743081E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -631,7 +631,7 @@
         <v>23528</v>
       </c>
       <c r="B24">
-        <v>4.8962195603308653E-3</v>
+        <v>4.465220948320428E-3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -639,7 +639,7 @@
         <v>23558</v>
       </c>
       <c r="B25">
-        <v>-5.8898715353307429E-4</v>
+        <v>-2.7289332686711992E-4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -647,7 +647,7 @@
         <v>23589</v>
       </c>
       <c r="B26">
-        <v>-3.4040096227857912E-3</v>
+        <v>-4.1788864585968338E-3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -655,7 +655,7 @@
         <v>23620</v>
       </c>
       <c r="B27">
-        <v>1.4004498985202E-2</v>
+        <v>1.597680514765901E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -663,7 +663,7 @@
         <v>23650</v>
       </c>
       <c r="B28">
-        <v>-2.1897831659287451E-2</v>
+        <v>-1.9263295275842449E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -671,7 +671,7 @@
         <v>23681</v>
       </c>
       <c r="B29">
-        <v>-8.0412437629981664E-3</v>
+        <v>-8.0229652176561379E-3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -679,7 +679,7 @@
         <v>23711</v>
       </c>
       <c r="B30">
-        <v>-9.5249217144206411E-3</v>
+        <v>-8.5136556616385896E-3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -687,7 +687,7 @@
         <v>23742</v>
       </c>
       <c r="B31">
-        <v>5.0877425238804608E-3</v>
+        <v>5.3707773047585866E-3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -695,7 +695,7 @@
         <v>23773</v>
       </c>
       <c r="B32">
-        <v>2.164838378827762E-2</v>
+        <v>2.144875124986987E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -703,7 +703,7 @@
         <v>23801</v>
       </c>
       <c r="B33">
-        <v>9.7557879680443861E-3</v>
+        <v>9.5273291198236486E-3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -711,7 +711,7 @@
         <v>23832</v>
       </c>
       <c r="B34">
-        <v>5.6049390372570644E-3</v>
+        <v>5.0616130350677521E-3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -719,7 +719,7 @@
         <v>23862</v>
       </c>
       <c r="B35">
-        <v>1.4831389145650121E-2</v>
+        <v>1.4637960735871709E-2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -727,7 +727,7 @@
         <v>23893</v>
       </c>
       <c r="B36">
-        <v>-4.0707516193583884E-3</v>
+        <v>-1.8342812325574311E-3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -735,7 +735,7 @@
         <v>23923</v>
       </c>
       <c r="B37">
-        <v>-5.5085471209252307E-3</v>
+        <v>-4.580402356137471E-3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -743,7 +743,7 @@
         <v>23954</v>
       </c>
       <c r="B38">
-        <v>6.8750467302825871E-3</v>
+        <v>6.7771207760061944E-3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -751,7 +751,7 @@
         <v>23985</v>
       </c>
       <c r="B39">
-        <v>5.480695461189615E-3</v>
+        <v>5.2284204632332271E-3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -759,7 +759,7 @@
         <v>24015</v>
       </c>
       <c r="B40">
-        <v>-9.7030192114576364E-4</v>
+        <v>-8.8300036348699235E-4</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -767,7 +767,7 @@
         <v>24046</v>
       </c>
       <c r="B41">
-        <v>9.8513539191075195E-3</v>
+        <v>9.7928048329682799E-3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -775,7 +775,7 @@
         <v>24076</v>
       </c>
       <c r="B42">
-        <v>4.754732077519962E-3</v>
+        <v>4.6124787158092432E-3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -783,7 +783,7 @@
         <v>24107</v>
       </c>
       <c r="B43">
-        <v>-1.9384288715727581E-2</v>
+        <v>-1.941893703023621E-2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -791,7 +791,7 @@
         <v>24138</v>
       </c>
       <c r="B44">
-        <v>8.1694040820691986E-3</v>
+        <v>8.0538157710813938E-3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -799,7 +799,7 @@
         <v>24166</v>
       </c>
       <c r="B45">
-        <v>-1.123614465915059E-2</v>
+        <v>-1.132349342527977E-2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -807,7 +807,7 @@
         <v>24197</v>
       </c>
       <c r="B46">
-        <v>1.05142206541807E-2</v>
+        <v>1.045635016385393E-2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -815,7 +815,7 @@
         <v>24227</v>
       </c>
       <c r="B47">
-        <v>-7.4333580737489316E-3</v>
+        <v>-7.6466534917184262E-3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -823,7 +823,7 @@
         <v>24258</v>
       </c>
       <c r="B48">
-        <v>3.5839940538609501E-3</v>
+        <v>3.7342523256850969E-3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -831,7 +831,7 @@
         <v>24288</v>
       </c>
       <c r="B49">
-        <v>1.4406004130718729E-2</v>
+        <v>1.43360240294951E-2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -839,7 +839,7 @@
         <v>24319</v>
       </c>
       <c r="B50">
-        <v>2.3303412569946159E-2</v>
+        <v>2.3472364283139119E-2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -847,7 +847,7 @@
         <v>24350</v>
       </c>
       <c r="B51">
-        <v>2.4693216615688661E-3</v>
+        <v>2.599245499242175E-3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -855,7 +855,7 @@
         <v>24380</v>
       </c>
       <c r="B52">
-        <v>-6.9198372284084986E-5</v>
+        <v>3.5998281393986338E-4</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -863,7 +863,7 @@
         <v>24411</v>
       </c>
       <c r="B53">
-        <v>1.552099719320058E-2</v>
+        <v>1.720410711695268E-2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -871,7 +871,7 @@
         <v>24441</v>
       </c>
       <c r="B54">
-        <v>5.680815547617811E-3</v>
+        <v>4.9502320777815474E-3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -879,7 +879,7 @@
         <v>24472</v>
       </c>
       <c r="B55">
-        <v>-1.8279350378221199E-3</v>
+        <v>-1.7240646005309229E-3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -887,7 +887,7 @@
         <v>24503</v>
       </c>
       <c r="B56">
-        <v>-9.2527473927909304E-3</v>
+        <v>-1.085433626662341E-2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -895,7 +895,7 @@
         <v>24531</v>
       </c>
       <c r="B57">
-        <v>-1.131401588213307E-2</v>
+        <v>-1.2525602376601171E-2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -903,7 +903,7 @@
         <v>24562</v>
       </c>
       <c r="B58">
-        <v>7.9086504865824026E-3</v>
+        <v>8.6488268400546769E-3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -911,7 +911,7 @@
         <v>24592</v>
       </c>
       <c r="B59">
-        <v>3.1914440743420198E-3</v>
+        <v>3.170056176432054E-3</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -919,7 +919,7 @@
         <v>24623</v>
       </c>
       <c r="B60">
-        <v>-9.8604756458499331E-3</v>
+        <v>-9.7420432715392136E-3</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -927,7 +927,7 @@
         <v>24653</v>
       </c>
       <c r="B61">
-        <v>-1.0725155433248331E-3</v>
+        <v>-4.4890361874887971E-3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -935,7 +935,7 @@
         <v>24684</v>
       </c>
       <c r="B62">
-        <v>-2.3951246798024722E-2</v>
+        <v>-2.351542816530099E-2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -943,7 +943,7 @@
         <v>24715</v>
       </c>
       <c r="B63">
-        <v>-6.9424406434055418E-3</v>
+        <v>-6.643469692768203E-3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -951,7 +951,7 @@
         <v>24745</v>
       </c>
       <c r="B64">
-        <v>-1.4246579460704361E-2</v>
+        <v>-1.4424134398587741E-2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -959,7 +959,7 @@
         <v>24776</v>
       </c>
       <c r="B65">
-        <v>-3.258517446103702E-3</v>
+        <v>-3.7758676835023021E-3</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -967,7 +967,7 @@
         <v>24806</v>
       </c>
       <c r="B66">
-        <v>9.9992154081383691E-3</v>
+        <v>1.003378373840536E-2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -975,7 +975,7 @@
         <v>24837</v>
       </c>
       <c r="B67">
-        <v>-1.6862749986680001E-2</v>
+        <v>-1.6129793615029971E-2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -983,7 +983,7 @@
         <v>24868</v>
       </c>
       <c r="B68">
-        <v>2.5955826248532719E-3</v>
+        <v>3.186649971670754E-3</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -991,7 +991,7 @@
         <v>24897</v>
       </c>
       <c r="B69">
-        <v>1.064898122928676E-2</v>
+        <v>1.088165449954571E-2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -999,7 +999,7 @@
         <v>24928</v>
       </c>
       <c r="B70">
-        <v>6.4694862176092162E-3</v>
+        <v>6.7652479885880936E-3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -1007,7 +1007,7 @@
         <v>24958</v>
       </c>
       <c r="B71">
-        <v>-2.0136226143295109E-2</v>
+        <v>-1.9799325911007231E-2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -1015,7 +1015,7 @@
         <v>24989</v>
       </c>
       <c r="B72">
-        <v>6.1227643394350592E-3</v>
+        <v>6.4343194246336902E-3</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -1023,7 +1023,7 @@
         <v>25019</v>
       </c>
       <c r="B73">
-        <v>1.13099539661296E-3</v>
+        <v>1.361288053644754E-3</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -1031,7 +1031,7 @@
         <v>25050</v>
       </c>
       <c r="B74">
-        <v>-2.9861449234344861E-2</v>
+        <v>-2.9530855032929019E-2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -1039,7 +1039,7 @@
         <v>25081</v>
       </c>
       <c r="B75">
-        <v>-1.3833451390744479E-3</v>
+        <v>-1.752115186352571E-3</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -1047,7 +1047,7 @@
         <v>25111</v>
       </c>
       <c r="B76">
-        <v>-1.504913374232723E-2</v>
+        <v>-1.467367534605084E-2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -1055,7 +1055,7 @@
         <v>25142</v>
       </c>
       <c r="B77">
-        <v>-2.5127900873706411E-3</v>
+        <v>-2.361839361853869E-3</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -1063,7 +1063,7 @@
         <v>25172</v>
       </c>
       <c r="B78">
-        <v>-2.950806293937791E-3</v>
+        <v>-3.0480650865230829E-3</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -1071,7 +1071,7 @@
         <v>25203</v>
       </c>
       <c r="B79">
-        <v>-1.251112454907758E-2</v>
+        <v>-1.251054774658111E-2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -1079,7 +1079,7 @@
         <v>25234</v>
       </c>
       <c r="B80">
-        <v>3.3355655137223129E-3</v>
+        <v>3.619283462065533E-3</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -1087,7 +1087,7 @@
         <v>25262</v>
       </c>
       <c r="B81">
-        <v>1.2152056066692099E-2</v>
+        <v>1.197570503150501E-2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -1095,7 +1095,7 @@
         <v>25293</v>
       </c>
       <c r="B82">
-        <v>-1.542038750011381E-2</v>
+        <v>-1.5264011026911989E-2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -1103,7 +1103,7 @@
         <v>25323</v>
       </c>
       <c r="B83">
-        <v>7.9966559285682155E-3</v>
+        <v>7.8449612943710893E-3</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -1111,7 +1111,7 @@
         <v>25354</v>
       </c>
       <c r="B84">
-        <v>1.897122280625868E-3</v>
+        <v>1.3636927298167349E-3</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -1119,7 +1119,7 @@
         <v>25384</v>
       </c>
       <c r="B85">
-        <v>3.5098284929393993E-2</v>
+        <v>3.4979196453172177E-2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -1127,7 +1127,7 @@
         <v>25415</v>
       </c>
       <c r="B86">
-        <v>2.7581157643045761E-2</v>
+        <v>2.7654245187868829E-2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -1135,7 +1135,7 @@
         <v>25446</v>
       </c>
       <c r="B87">
-        <v>-1.3512841330439051E-2</v>
+        <v>-1.377558870040041E-2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -1143,7 +1143,7 @@
         <v>25476</v>
       </c>
       <c r="B88">
-        <v>3.0447823456392811E-2</v>
+        <v>3.0434751413454499E-2</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -1151,7 +1151,7 @@
         <v>25507</v>
       </c>
       <c r="B89">
-        <v>-1.157371820540371E-2</v>
+        <v>-1.150518240018787E-2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -1159,7 +1159,7 @@
         <v>25537</v>
       </c>
       <c r="B90">
-        <v>2.0771956190885791E-2</v>
+        <v>2.0513698521089078E-2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -1167,7 +1167,7 @@
         <v>25568</v>
       </c>
       <c r="B91">
-        <v>2.468703997774142E-2</v>
+        <v>2.475641330411044E-2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -1175,7 +1175,7 @@
         <v>25599</v>
       </c>
       <c r="B92">
-        <v>8.6540395994419705E-3</v>
+        <v>8.7293226500032711E-3</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -1183,7 +1183,7 @@
         <v>25627</v>
       </c>
       <c r="B93">
-        <v>-6.8460035923113838E-4</v>
+        <v>-5.2294215021236878E-4</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -1191,7 +1191,7 @@
         <v>25658</v>
       </c>
       <c r="B94">
-        <v>5.7738314676558621E-3</v>
+        <v>5.7331340002485494E-3</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -1199,7 +1199,7 @@
         <v>25688</v>
       </c>
       <c r="B95">
-        <v>2.7335144055381889E-2</v>
+        <v>2.7268905480268061E-2</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -1207,7 +1207,7 @@
         <v>25719</v>
       </c>
       <c r="B96">
-        <v>-1.202179014312461E-2</v>
+        <v>-1.1889570687350481E-2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -1215,7 +1215,7 @@
         <v>25749</v>
       </c>
       <c r="B97">
-        <v>1.506847433741389E-2</v>
+        <v>1.488051575972405E-2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -1223,7 +1223,7 @@
         <v>25780</v>
       </c>
       <c r="B98">
-        <v>-1.8009371972979439E-3</v>
+        <v>-1.9025452023006121E-3</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -1231,7 +1231,7 @@
         <v>25811</v>
       </c>
       <c r="B99">
-        <v>7.940396608401401E-3</v>
+        <v>7.168459961999829E-3</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -1239,7 +1239,7 @@
         <v>25841</v>
       </c>
       <c r="B100">
-        <v>-2.2024082319300881E-2</v>
+        <v>-2.079950304692019E-2</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -1247,7 +1247,7 @@
         <v>25872</v>
       </c>
       <c r="B101">
-        <v>7.5531719335478094E-3</v>
+        <v>6.8153407916036364E-3</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -1255,7 +1255,7 @@
         <v>25902</v>
       </c>
       <c r="B102">
-        <v>1.353215730852878E-2</v>
+        <v>1.213092314909475E-2</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -1263,7 +1263,7 @@
         <v>25933</v>
       </c>
       <c r="B103">
-        <v>1.9533193157574749E-2</v>
+        <v>2.0265594520917331E-2</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -1271,7 +1271,7 @@
         <v>25964</v>
       </c>
       <c r="B104">
-        <v>1.468723787431808E-2</v>
+        <v>1.5968160645738048E-2</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -1279,7 +1279,7 @@
         <v>25992</v>
       </c>
       <c r="B105">
-        <v>-2.309834299515183E-2</v>
+        <v>-2.2740075393877322E-2</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -1287,7 +1287,7 @@
         <v>26023</v>
       </c>
       <c r="B106">
-        <v>7.7413122644896604E-3</v>
+        <v>6.8879008769171732E-3</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -1295,7 +1295,7 @@
         <v>26053</v>
       </c>
       <c r="B107">
-        <v>-2.472830643803707E-3</v>
+        <v>-2.2213739723230329E-3</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -1303,7 +1303,7 @@
         <v>26084</v>
       </c>
       <c r="B108">
-        <v>5.6200273205323018E-3</v>
+        <v>4.2661104683650863E-3</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -1311,7 +1311,7 @@
         <v>26114</v>
       </c>
       <c r="B109">
-        <v>1.5728088847527001E-2</v>
+        <v>1.546884124976541E-2</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -1319,7 +1319,7 @@
         <v>26145</v>
       </c>
       <c r="B110">
-        <v>5.8556076922619479E-3</v>
+        <v>6.1030213492122504E-3</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -1327,7 +1327,7 @@
         <v>26176</v>
       </c>
       <c r="B111">
-        <v>-1.37483551417609E-2</v>
+        <v>-1.450201498171068E-2</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -1335,7 +1335,7 @@
         <v>26206</v>
       </c>
       <c r="B112">
-        <v>1.3693203331215049E-2</v>
+        <v>1.219850762843183E-2</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -1343,7 +1343,7 @@
         <v>26237</v>
       </c>
       <c r="B113">
-        <v>2.1891565308441011E-2</v>
+        <v>2.2144434832300591E-2</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -1351,7 +1351,7 @@
         <v>26267</v>
       </c>
       <c r="B114">
-        <v>6.9986282664688468E-3</v>
+        <v>6.4080584095457978E-3</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -1359,7 +1359,7 @@
         <v>26298</v>
       </c>
       <c r="B115">
-        <v>-2.5311920556590779E-2</v>
+        <v>-2.5515332412029301E-2</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -1367,7 +1367,7 @@
         <v>26329</v>
       </c>
       <c r="B116">
-        <v>-2.3428602134598471E-2</v>
+        <v>-2.242666126946909E-2</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
@@ -1375,7 +1375,7 @@
         <v>26358</v>
       </c>
       <c r="B117">
-        <v>-1.275662329391661E-2</v>
+        <v>-1.213525039650091E-2</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -1383,7 +1383,7 @@
         <v>26389</v>
       </c>
       <c r="B118">
-        <v>7.7647590872578793E-3</v>
+        <v>6.8853162017492239E-3</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
@@ -1391,7 +1391,7 @@
         <v>26419</v>
       </c>
       <c r="B119">
-        <v>-2.2763329438659639E-2</v>
+        <v>-2.2528673470265392E-2</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
@@ -1399,7 +1399,7 @@
         <v>26450</v>
       </c>
       <c r="B120">
-        <v>3.4046405349023611E-3</v>
+        <v>3.6319774535447809E-3</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -1407,7 +1407,7 @@
         <v>26480</v>
       </c>
       <c r="B121">
-        <v>1.828420003036783E-2</v>
+        <v>1.8134882285808451E-2</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
@@ -1415,7 +1415,7 @@
         <v>26511</v>
       </c>
       <c r="B122">
-        <v>2.7391623148649371E-2</v>
+        <v>2.7128811668353899E-2</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
@@ -1423,7 +1423,7 @@
         <v>26542</v>
       </c>
       <c r="B123">
-        <v>-3.3720952711086521E-2</v>
+        <v>-3.3707400066940153E-2</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -1431,7 +1431,7 @@
         <v>26572</v>
       </c>
       <c r="B124">
-        <v>5.453823081183154E-3</v>
+        <v>5.2456798922671383E-3</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -1439,7 +1439,7 @@
         <v>26603</v>
       </c>
       <c r="B125">
-        <v>7.826869177954502E-3</v>
+        <v>7.51398771951767E-3</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
@@ -1447,7 +1447,7 @@
         <v>26633</v>
       </c>
       <c r="B126">
-        <v>-6.8195099843486318E-3</v>
+        <v>-6.156689921170487E-3</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
@@ -1455,7 +1455,7 @@
         <v>26664</v>
       </c>
       <c r="B127">
-        <v>1.9919875294921442E-2</v>
+        <v>1.9848012152810068E-2</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -1463,7 +1463,7 @@
         <v>26695</v>
       </c>
       <c r="B128">
-        <v>-2.7684280986808269E-2</v>
+        <v>-2.7724786448705269E-2</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
@@ -1471,7 +1471,7 @@
         <v>26723</v>
       </c>
       <c r="B129">
-        <v>2.0527673642349299E-2</v>
+        <v>2.0612475290953069E-2</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
@@ -1479,7 +1479,7 @@
         <v>26754</v>
       </c>
       <c r="B130">
-        <v>-1.733491202456584E-2</v>
+        <v>-1.683698542976108E-2</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
@@ -1487,7 +1487,7 @@
         <v>26784</v>
       </c>
       <c r="B131">
-        <v>-1.3111602905322791E-2</v>
+        <v>-1.2745191336975841E-2</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
@@ -1495,7 +1495,7 @@
         <v>26815</v>
       </c>
       <c r="B132">
-        <v>4.9862966893227903E-2</v>
+        <v>4.9943337815752033E-2</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
@@ -1503,7 +1503,7 @@
         <v>26845</v>
       </c>
       <c r="B133">
-        <v>-2.3705204534043012E-3</v>
+        <v>-3.035700522433613E-3</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
@@ -1511,7 +1511,7 @@
         <v>26876</v>
       </c>
       <c r="B134">
-        <v>-3.001923440224305E-3</v>
+        <v>-3.3116528974859311E-3</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
@@ -1519,7 +1519,7 @@
         <v>26907</v>
       </c>
       <c r="B135">
-        <v>-1.018337612673962E-2</v>
+        <v>-9.6600754824989268E-3</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
@@ -1527,7 +1527,7 @@
         <v>26937</v>
       </c>
       <c r="B136">
-        <v>-3.6737022397485462E-2</v>
+        <v>-3.6735138506089712E-2</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
@@ -1535,7 +1535,7 @@
         <v>26968</v>
       </c>
       <c r="B137">
-        <v>-2.5213381036345999E-2</v>
+        <v>-2.5158038253047878E-2</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
@@ -1543,7 +1543,7 @@
         <v>26998</v>
       </c>
       <c r="B138">
-        <v>2.0026677838749779E-4</v>
+        <v>-8.5018257675764652E-4</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
@@ -1551,7 +1551,7 @@
         <v>27029</v>
       </c>
       <c r="B139">
-        <v>-3.0422460286145991E-2</v>
+        <v>-3.070344887662306E-2</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
@@ -1559,7 +1559,7 @@
         <v>27060</v>
       </c>
       <c r="B140">
-        <v>-1.0506654767109651E-2</v>
+        <v>-1.034065554590635E-2</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
@@ -1567,7 +1567,7 @@
         <v>27088</v>
       </c>
       <c r="B141">
-        <v>-3.4633339127528302E-3</v>
+        <v>-3.5327890465987649E-3</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
@@ -1575,7 +1575,7 @@
         <v>27119</v>
       </c>
       <c r="B142">
-        <v>8.4758024072019329E-3</v>
+        <v>8.3221112138480938E-3</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
@@ -1583,7 +1583,7 @@
         <v>27149</v>
       </c>
       <c r="B143">
-        <v>1.2692979014081869E-2</v>
+        <v>1.224510758197456E-2</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
@@ -1591,7 +1591,7 @@
         <v>27180</v>
       </c>
       <c r="B144">
-        <v>3.9651209639210837E-2</v>
+        <v>3.9252137852487309E-2</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
@@ -1599,7 +1599,7 @@
         <v>27210</v>
       </c>
       <c r="B145">
-        <v>-1.0911502434235699E-2</v>
+        <v>-1.1223442447571451E-2</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
@@ -1607,7 +1607,7 @@
         <v>27241</v>
       </c>
       <c r="B146">
-        <v>-1.8905368865466541E-2</v>
+        <v>-1.9658167352264999E-2</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
@@ -1615,7 +1615,7 @@
         <v>27272</v>
       </c>
       <c r="B147">
-        <v>-2.9044928757021582E-3</v>
+        <v>-2.686665896767471E-3</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
@@ -1623,7 +1623,7 @@
         <v>27302</v>
       </c>
       <c r="B148">
-        <v>-2.052210767657547E-2</v>
+        <v>-2.1548400204233219E-2</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
@@ -1631,7 +1631,7 @@
         <v>27333</v>
       </c>
       <c r="B149">
-        <v>2.4600400719956349E-2</v>
+        <v>2.4345122897030669E-2</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
@@ -1639,7 +1639,7 @@
         <v>27363</v>
       </c>
       <c r="B150">
-        <v>-1.9772348250513549E-3</v>
+        <v>-3.8592121865674359E-3</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
@@ -1647,7 +1647,7 @@
         <v>27394</v>
       </c>
       <c r="B151">
-        <v>2.5227133961601811E-2</v>
+        <v>2.506101947157922E-2</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
@@ -1655,7 +1655,7 @@
         <v>27425</v>
       </c>
       <c r="B152">
-        <v>-7.868915457220893E-2</v>
+        <v>-7.6449791100919179E-2</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
@@ -1663,7 +1663,7 @@
         <v>27453</v>
       </c>
       <c r="B153">
-        <v>1.7244968878966659E-2</v>
+        <v>1.7582198092019798E-2</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
@@ -1671,7 +1671,7 @@
         <v>27484</v>
       </c>
       <c r="B154">
-        <v>6.5759378696306769E-3</v>
+        <v>6.7208916359619217E-3</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
@@ -1679,7 +1679,7 @@
         <v>27514</v>
       </c>
       <c r="B155">
-        <v>-5.3003530818045994E-3</v>
+        <v>-5.9696042414737818E-3</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
@@ -1687,7 +1687,7 @@
         <v>27545</v>
       </c>
       <c r="B156">
-        <v>1.8449752702626859E-3</v>
+        <v>5.0521253728985638E-4</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
@@ -1695,7 +1695,7 @@
         <v>27575</v>
       </c>
       <c r="B157">
-        <v>-1.673532455441017E-2</v>
+        <v>-1.6215574146311609E-2</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
@@ -1703,7 +1703,7 @@
         <v>27606</v>
       </c>
       <c r="B158">
-        <v>-1.1648471465304591E-2</v>
+        <v>-1.1123658009339321E-2</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
@@ -1711,7 +1711,7 @@
         <v>27637</v>
       </c>
       <c r="B159">
-        <v>-1.1516739515320051E-3</v>
+        <v>-8.4499602503338572E-4</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
@@ -1719,7 +1719,7 @@
         <v>27667</v>
       </c>
       <c r="B160">
-        <v>-2.9301104179503649E-3</v>
+        <v>-2.289349690213664E-3</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
@@ -1727,7 +1727,7 @@
         <v>27698</v>
       </c>
       <c r="B161">
-        <v>7.0146709104114196E-3</v>
+        <v>5.5068036051218877E-3</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
@@ -1735,7 +1735,7 @@
         <v>27728</v>
       </c>
       <c r="B162">
-        <v>1.225302990242697E-2</v>
+        <v>1.2945046772814149E-2</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
@@ -1743,7 +1743,7 @@
         <v>27759</v>
       </c>
       <c r="B163">
-        <v>-1.148666110916456E-2</v>
+        <v>-1.1610552468143289E-2</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -1751,7 +1751,7 @@
         <v>27790</v>
       </c>
       <c r="B164">
-        <v>2.694497768960552E-3</v>
+        <v>2.2634151659021722E-3</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
@@ -1759,7 +1759,7 @@
         <v>27819</v>
       </c>
       <c r="B165">
-        <v>-1.430618791185596E-2</v>
+        <v>-1.455390571822456E-2</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
@@ -1767,7 +1767,7 @@
         <v>27850</v>
       </c>
       <c r="B166">
-        <v>5.2528636753759574E-3</v>
+        <v>5.614853508526689E-3</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
@@ -1775,7 +1775,7 @@
         <v>27880</v>
       </c>
       <c r="B167">
-        <v>1.2299655842704939E-3</v>
+        <v>1.3692049398113281E-3</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
@@ -1783,7 +1783,7 @@
         <v>27911</v>
       </c>
       <c r="B168">
-        <v>7.0418382615947978E-3</v>
+        <v>6.5728139517367314E-3</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
@@ -1791,7 +1791,7 @@
         <v>27941</v>
       </c>
       <c r="B169">
-        <v>-4.705336342281638E-3</v>
+        <v>-4.7249849346998399E-3</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
@@ -1799,7 +1799,7 @@
         <v>27972</v>
       </c>
       <c r="B170">
-        <v>7.4650010035528114E-4</v>
+        <v>1.447971009815354E-3</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
@@ -1807,7 +1807,7 @@
         <v>28003</v>
       </c>
       <c r="B171">
-        <v>1.4174889865854081E-2</v>
+        <v>1.521818085799242E-2</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
@@ -1815,7 +1815,7 @@
         <v>28033</v>
       </c>
       <c r="B172">
-        <v>-7.5634911267335771E-3</v>
+        <v>-7.0452161259924352E-3</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
@@ -1823,7 +1823,7 @@
         <v>28064</v>
       </c>
       <c r="B173">
-        <v>1.0759196974455459E-2</v>
+        <v>1.0872585651692201E-2</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
@@ -1831,7 +1831,7 @@
         <v>28094</v>
       </c>
       <c r="B174">
-        <v>-2.3083195397449389E-3</v>
+        <v>-1.677979041142062E-3</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
@@ -1839,7 +1839,7 @@
         <v>28125</v>
       </c>
       <c r="B175">
-        <v>-2.056575056131087E-2</v>
+        <v>-2.0410480854603081E-2</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
@@ -1847,7 +1847,7 @@
         <v>28156</v>
       </c>
       <c r="B176">
-        <v>-1.745053969649905E-2</v>
+        <v>-1.7064420581312661E-2</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
@@ -1855,7 +1855,7 @@
         <v>28184</v>
       </c>
       <c r="B177">
-        <v>1.3821601356769591E-2</v>
+        <v>1.423430190977352E-2</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
@@ -1863,7 +1863,7 @@
         <v>28215</v>
       </c>
       <c r="B178">
-        <v>5.4443350672402748E-3</v>
+        <v>5.7449444644549494E-3</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
@@ -1871,7 +1871,7 @@
         <v>28245</v>
       </c>
       <c r="B179">
-        <v>-1.087611419539731E-2</v>
+        <v>-1.099702217463149E-2</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
@@ -1879,7 +1879,7 @@
         <v>28276</v>
       </c>
       <c r="B180">
-        <v>1.140723821197873E-2</v>
+        <v>1.1920778899100841E-2</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
@@ -1887,7 +1887,7 @@
         <v>28306</v>
       </c>
       <c r="B181">
-        <v>-4.7863842310589544E-3</v>
+        <v>-4.911274804332233E-3</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
@@ -1895,7 +1895,7 @@
         <v>28337</v>
       </c>
       <c r="B182">
-        <v>1.5685758876492768E-2</v>
+        <v>1.566043308428269E-2</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
@@ -1903,7 +1903,7 @@
         <v>28368</v>
       </c>
       <c r="B183">
-        <v>4.791529908706408E-3</v>
+        <v>5.1802416202152961E-3</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
@@ -1911,7 +1911,7 @@
         <v>28398</v>
       </c>
       <c r="B184">
-        <v>8.3327768025989023E-3</v>
+        <v>8.3401706949955013E-3</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
@@ -1919,7 +1919,7 @@
         <v>28429</v>
       </c>
       <c r="B185">
-        <v>9.9453491991127047E-4</v>
+        <v>9.2185188996016937E-4</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
@@ -1927,7 +1927,7 @@
         <v>28459</v>
       </c>
       <c r="B186">
-        <v>-6.1097805860807616E-3</v>
+        <v>-6.2006211848732729E-3</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
@@ -1935,7 +1935,7 @@
         <v>28490</v>
       </c>
       <c r="B187">
-        <v>-6.8840240601806824E-3</v>
+        <v>-7.301178132320325E-3</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
@@ -1943,7 +1943,7 @@
         <v>28521</v>
       </c>
       <c r="B188">
-        <v>-4.8900834509398444E-3</v>
+        <v>-4.7251449488379949E-3</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
@@ -1951,7 +1951,7 @@
         <v>28549</v>
       </c>
       <c r="B189">
-        <v>2.822355028726652E-3</v>
+        <v>2.707119826735578E-3</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
@@ -1959,7 +1959,7 @@
         <v>28580</v>
       </c>
       <c r="B190">
-        <v>-2.0332369205080449E-2</v>
+        <v>-1.9919601540638921E-2</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
@@ -1967,7 +1967,7 @@
         <v>28610</v>
       </c>
       <c r="B191">
-        <v>-4.3120893048725628E-3</v>
+        <v>-4.6746314877518513E-3</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
@@ -1975,7 +1975,7 @@
         <v>28641</v>
       </c>
       <c r="B192">
-        <v>-9.3985829518677955E-3</v>
+        <v>-9.047140401390652E-3</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
@@ -1983,7 +1983,7 @@
         <v>28671</v>
       </c>
       <c r="B193">
-        <v>-3.1712014712390831E-3</v>
+        <v>-2.9517801894492989E-3</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
@@ -1991,7 +1991,7 @@
         <v>28702</v>
       </c>
       <c r="B194">
-        <v>-1.5302624265977441E-2</v>
+        <v>-1.5231674000752289E-2</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
@@ -1999,7 +1999,7 @@
         <v>28733</v>
       </c>
       <c r="B195">
-        <v>-8.8796777716680098E-3</v>
+        <v>-8.7738100278408962E-3</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
@@ -2007,7 +2007,7 @@
         <v>28763</v>
       </c>
       <c r="B196">
-        <v>-7.2720457688736067E-3</v>
+        <v>-7.0487852145904133E-3</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
@@ -2015,7 +2015,7 @@
         <v>28794</v>
       </c>
       <c r="B197">
-        <v>3.0850620019006379E-2</v>
+        <v>3.0475821602008981E-2</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
@@ -2023,7 +2023,7 @@
         <v>28824</v>
       </c>
       <c r="B198">
-        <v>-3.7639668568095058E-4</v>
+        <v>3.5117206000234019E-4</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
@@ -2031,7 +2031,7 @@
         <v>28855</v>
       </c>
       <c r="B199">
-        <v>-9.4918378837997395E-3</v>
+        <v>-9.6152734404448062E-3</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
@@ -2039,7 +2039,7 @@
         <v>28886</v>
       </c>
       <c r="B200">
-        <v>-1.2986160131375961E-2</v>
+        <v>-1.200324079010232E-2</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
@@ -2047,7 +2047,7 @@
         <v>28914</v>
       </c>
       <c r="B201">
-        <v>2.6437592537371449E-3</v>
+        <v>3.132805408320026E-3</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
@@ -2055,7 +2055,7 @@
         <v>28945</v>
       </c>
       <c r="B202">
-        <v>-1.2131545433208411E-2</v>
+        <v>-1.215423111384244E-2</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
@@ -2063,7 +2063,7 @@
         <v>28975</v>
       </c>
       <c r="B203">
-        <v>-6.1965889778302216E-3</v>
+        <v>-6.5812351490748752E-3</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
@@ -2071,7 +2071,7 @@
         <v>29006</v>
       </c>
       <c r="B204">
-        <v>2.735904695226448E-3</v>
+        <v>3.0424640999249658E-3</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
@@ -2079,7 +2079,7 @@
         <v>29036</v>
       </c>
       <c r="B205">
-        <v>-1.147347167702175E-2</v>
+        <v>-1.1827593913382549E-2</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
@@ -2087,7 +2087,7 @@
         <v>29067</v>
       </c>
       <c r="B206">
-        <v>5.8344733237594556E-3</v>
+        <v>5.7417957402777246E-3</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
@@ -2095,7 +2095,7 @@
         <v>29098</v>
       </c>
       <c r="B207">
-        <v>-1.9029777278749299E-2</v>
+        <v>-1.9185499830529432E-2</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
@@ -2103,7 +2103,7 @@
         <v>29128</v>
       </c>
       <c r="B208">
-        <v>-3.3561173874717591E-3</v>
+        <v>-3.582015901987068E-3</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
@@ -2111,7 +2111,7 @@
         <v>29159</v>
       </c>
       <c r="B209">
-        <v>-1.113979525738577E-2</v>
+        <v>-1.0774751147792239E-2</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
@@ -2119,7 +2119,7 @@
         <v>29189</v>
       </c>
       <c r="B210">
-        <v>-7.2150027229365976E-4</v>
+        <v>-1.1978096200103839E-3</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
@@ -2127,7 +2127,7 @@
         <v>29220</v>
       </c>
       <c r="B211">
-        <v>-1.4615219999478381E-2</v>
+        <v>-1.5172902605973929E-2</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
@@ -2135,7 +2135,7 @@
         <v>29251</v>
       </c>
       <c r="B212">
-        <v>-3.5781726464451193E-2</v>
+        <v>-3.6743986917482888E-2</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
@@ -2143,7 +2143,7 @@
         <v>29280</v>
       </c>
       <c r="B213">
-        <v>-8.5778854889159758E-3</v>
+        <v>-9.2481406702365643E-3</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
@@ -2151,7 +2151,7 @@
         <v>29311</v>
       </c>
       <c r="B214">
-        <v>1.545308662821193E-2</v>
+        <v>1.5998380001314261E-2</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
@@ -2159,7 +2159,7 @@
         <v>29341</v>
       </c>
       <c r="B215">
-        <v>-9.3066063582228423E-3</v>
+        <v>-8.7803750088204999E-3</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
@@ -2167,7 +2167,7 @@
         <v>29372</v>
       </c>
       <c r="B216">
-        <v>3.1224284060523831E-3</v>
+        <v>2.9175779863562369E-3</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
@@ -2175,7 +2175,7 @@
         <v>29402</v>
       </c>
       <c r="B217">
-        <v>-6.1261822565507754E-3</v>
+        <v>-5.6811135322525907E-3</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
@@ -2183,7 +2183,7 @@
         <v>29433</v>
       </c>
       <c r="B218">
-        <v>-8.5058671937633668E-4</v>
+        <v>2.9239465625030409E-3</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
@@ -2191,7 +2191,7 @@
         <v>29464</v>
       </c>
       <c r="B219">
-        <v>-7.0895060893309825E-4</v>
+        <v>-7.2017140385800815E-4</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
@@ -2199,7 +2199,7 @@
         <v>29494</v>
       </c>
       <c r="B220">
-        <v>-1.5271332364615539E-2</v>
+        <v>-1.278466683780388E-2</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
@@ -2207,7 +2207,7 @@
         <v>29525</v>
       </c>
       <c r="B221">
-        <v>-2.8241335286147561E-3</v>
+        <v>1.957304634406853E-3</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
@@ -2215,7 +2215,7 @@
         <v>29555</v>
       </c>
       <c r="B222">
-        <v>-9.3784930844896114E-3</v>
+        <v>-7.4417534528657958E-3</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
@@ -2223,7 +2223,7 @@
         <v>29586</v>
       </c>
       <c r="B223">
-        <v>1.092256205537679E-2</v>
+        <v>7.8698484598972787E-3</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
@@ -2231,7 +2231,7 @@
         <v>29617</v>
       </c>
       <c r="B224">
-        <v>-1.576667637544184E-3</v>
+        <v>-4.7941944385890096E-3</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
@@ -2239,7 +2239,7 @@
         <v>29645</v>
       </c>
       <c r="B225">
-        <v>-1.3475487983319439E-2</v>
+        <v>-1.346234089421066E-2</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
@@ -2247,7 +2247,7 @@
         <v>29676</v>
       </c>
       <c r="B226">
-        <v>-1.527564080379115E-3</v>
+        <v>-2.126654403413183E-3</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
@@ -2255,7 +2255,7 @@
         <v>29706</v>
       </c>
       <c r="B227">
-        <v>9.2817678975675028E-3</v>
+        <v>8.2105076368027691E-3</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
@@ -2263,7 +2263,7 @@
         <v>29737</v>
       </c>
       <c r="B228">
-        <v>2.8601964770997609E-3</v>
+        <v>5.2166263429947318E-5</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
@@ -2271,7 +2271,7 @@
         <v>29767</v>
       </c>
       <c r="B229">
-        <v>-7.4589759937609794E-4</v>
+        <v>-1.309749233753762E-3</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
@@ -2279,7 +2279,7 @@
         <v>29798</v>
       </c>
       <c r="B230">
-        <v>1.1398377132134921E-2</v>
+        <v>1.034226466811743E-2</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
@@ -2287,7 +2287,7 @@
         <v>29829</v>
       </c>
       <c r="B231">
-        <v>2.1768317967404031E-2</v>
+        <v>1.947292272759284E-2</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
@@ -2295,7 +2295,7 @@
         <v>29859</v>
       </c>
       <c r="B232">
-        <v>4.6932472753694049E-4</v>
+        <v>2.7207176889123409E-3</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
@@ -2303,7 +2303,7 @@
         <v>29890</v>
       </c>
       <c r="B233">
-        <v>-1.1901447774870231E-3</v>
+        <v>-8.5146569702207048E-3</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
@@ -2311,7 +2311,7 @@
         <v>29920</v>
       </c>
       <c r="B234">
-        <v>3.5550088403333291E-3</v>
+        <v>1.0669094267662349E-2</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
@@ -2319,7 +2319,7 @@
         <v>29951</v>
       </c>
       <c r="B235">
-        <v>1.3954048786310831E-2</v>
+        <v>1.4191805967702101E-2</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
@@ -2327,7 +2327,7 @@
         <v>29982</v>
       </c>
       <c r="B236">
-        <v>-1.581011884832156E-2</v>
+        <v>-6.2019909619685371E-3</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
@@ -2335,7 +2335,7 @@
         <v>30010</v>
       </c>
       <c r="B237">
-        <v>-2.1795211973959019E-3</v>
+        <v>2.7260218349430469E-3</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
@@ -2343,7 +2343,7 @@
         <v>30041</v>
       </c>
       <c r="B238">
-        <v>-4.1780522736266836E-3</v>
+        <v>-4.6152434988512491E-3</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
@@ -2351,7 +2351,7 @@
         <v>30071</v>
       </c>
       <c r="B239">
-        <v>-3.1849013110324328E-3</v>
+        <v>-5.8755091023928244E-3</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
@@ -2359,7 +2359,7 @@
         <v>30102</v>
       </c>
       <c r="B240">
-        <v>5.3395339538451561E-3</v>
+        <v>6.0613447379304249E-3</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
@@ -2367,7 +2367,7 @@
         <v>30132</v>
       </c>
       <c r="B241">
-        <v>-1.5875481201984239E-2</v>
+        <v>-1.307627430297648E-2</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
@@ -2375,7 +2375,7 @@
         <v>30163</v>
       </c>
       <c r="B242">
-        <v>6.5718513287831657E-3</v>
+        <v>5.2949158002916809E-3</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
@@ -2383,7 +2383,7 @@
         <v>30194</v>
       </c>
       <c r="B243">
-        <v>1.1300402693557031E-2</v>
+        <v>1.1872188112300831E-2</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
@@ -2391,7 +2391,7 @@
         <v>30224</v>
       </c>
       <c r="B244">
-        <v>2.076037474577287E-3</v>
+        <v>1.643274737468361E-3</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
@@ -2399,7 +2399,7 @@
         <v>30255</v>
       </c>
       <c r="B245">
-        <v>-1.7667032151899461E-2</v>
+        <v>-1.7311363257212279E-2</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
@@ -2407,7 +2407,7 @@
         <v>30285</v>
       </c>
       <c r="B246">
-        <v>2.1838552205284E-3</v>
+        <v>2.316864852566256E-3</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
@@ -2415,7 +2415,7 @@
         <v>30316</v>
       </c>
       <c r="B247">
-        <v>1.3622438728287729E-2</v>
+        <v>1.3800313997647669E-2</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
@@ -2423,7 +2423,7 @@
         <v>30347</v>
       </c>
       <c r="B248">
-        <v>-1.8722159367011239E-2</v>
+        <v>-1.8569170846885918E-2</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
@@ -2431,7 +2431,7 @@
         <v>30375</v>
       </c>
       <c r="B249">
-        <v>-3.4976941387083742E-3</v>
+        <v>-4.2371776909097547E-3</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
@@ -2439,7 +2439,7 @@
         <v>30406</v>
       </c>
       <c r="B250">
-        <v>-3.4570369328489749E-3</v>
+        <v>-3.5402672763489369E-3</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
@@ -2447,7 +2447,7 @@
         <v>30436</v>
       </c>
       <c r="B251">
-        <v>-3.0398194265542221E-3</v>
+        <v>-2.548344661579105E-3</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
@@ -2455,7 +2455,7 @@
         <v>30467</v>
       </c>
       <c r="B252">
-        <v>-8.1878639334957495E-3</v>
+        <v>-7.7837353772465742E-3</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
@@ -2463,7 +2463,7 @@
         <v>30497</v>
       </c>
       <c r="B253">
-        <v>-2.3366933525443968E-3</v>
+        <v>-2.1892609766855642E-3</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
@@ -2471,7 +2471,7 @@
         <v>30528</v>
       </c>
       <c r="B254">
-        <v>2.8641642835058878E-3</v>
+        <v>2.1158778682345558E-3</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
@@ -2479,7 +2479,7 @@
         <v>30559</v>
       </c>
       <c r="B255">
-        <v>1.8882450347803881E-2</v>
+        <v>1.8751898901063241E-2</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
@@ -2487,7 +2487,7 @@
         <v>30589</v>
       </c>
       <c r="B256">
-        <v>1.6803473232562208E-2</v>
+        <v>1.6537985323147548E-2</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
@@ -2495,7 +2495,7 @@
         <v>30620</v>
       </c>
       <c r="B257">
-        <v>1.117270165557277E-2</v>
+        <v>1.02217682889468E-2</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
@@ -2503,7 +2503,7 @@
         <v>30650</v>
       </c>
       <c r="B258">
-        <v>7.8385875914887722E-3</v>
+        <v>8.1094421939834731E-3</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
@@ -2511,7 +2511,7 @@
         <v>30681</v>
       </c>
       <c r="B259">
-        <v>-1.6335213404097122E-2</v>
+        <v>-1.7224351787290381E-2</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
@@ -2519,7 +2519,7 @@
         <v>30712</v>
       </c>
       <c r="B260">
-        <v>3.3247058902512068E-3</v>
+        <v>3.5125979733211972E-3</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
@@ -2527,7 +2527,7 @@
         <v>30741</v>
       </c>
       <c r="B261">
-        <v>1.967209548928528E-2</v>
+        <v>1.9727819877792051E-2</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
@@ -2535,7 +2535,7 @@
         <v>30772</v>
       </c>
       <c r="B262">
-        <v>3.3080453966450769E-3</v>
+        <v>2.5871355419696961E-3</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
@@ -2543,7 +2543,7 @@
         <v>30802</v>
       </c>
       <c r="B263">
-        <v>2.2446019286970369E-2</v>
+        <v>2.177400535779983E-2</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
@@ -2551,7 +2551,7 @@
         <v>30833</v>
       </c>
       <c r="B264">
-        <v>1.9108593510799039E-2</v>
+        <v>1.99864574553285E-2</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
@@ -2559,7 +2559,7 @@
         <v>30863</v>
       </c>
       <c r="B265">
-        <v>1.2908420268626611E-2</v>
+        <v>1.1056124709850139E-2</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
@@ -2567,7 +2567,7 @@
         <v>30894</v>
       </c>
       <c r="B266">
-        <v>5.5744855384000973E-2</v>
+        <v>5.567764295668054E-2</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
@@ -2575,7 +2575,7 @@
         <v>30925</v>
       </c>
       <c r="B267">
-        <v>-3.9217210755219417E-2</v>
+        <v>-3.9779739615124397E-2</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
@@ -2583,7 +2583,7 @@
         <v>30955</v>
       </c>
       <c r="B268">
-        <v>5.8045459749402097E-3</v>
+        <v>6.1782789074508694E-3</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
@@ -2591,7 +2591,7 @@
         <v>30986</v>
       </c>
       <c r="B269">
-        <v>2.574632717532133E-2</v>
+        <v>2.557447167359405E-2</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
@@ -2599,7 +2599,7 @@
         <v>31016</v>
       </c>
       <c r="B270">
-        <v>1.512738634666724E-2</v>
+        <v>1.4986650680694619E-2</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
@@ -2607,7 +2607,7 @@
         <v>31047</v>
       </c>
       <c r="B271">
-        <v>1.238417947873028E-2</v>
+        <v>1.123223863731383E-2</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
@@ -2615,7 +2615,7 @@
         <v>31078</v>
       </c>
       <c r="B272">
-        <v>-2.626428883891338E-2</v>
+        <v>-2.6333010958175421E-2</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
@@ -2623,7 +2623,7 @@
         <v>31106</v>
       </c>
       <c r="B273">
-        <v>2.484872915665361E-2</v>
+        <v>2.4608746303536121E-2</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
@@ -2631,7 +2631,7 @@
         <v>31137</v>
       </c>
       <c r="B274">
-        <v>3.7694347058692961E-3</v>
+        <v>4.0657946057796896E-3</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
@@ -2639,7 +2639,7 @@
         <v>31167</v>
       </c>
       <c r="B275">
-        <v>1.483736370568562E-2</v>
+        <v>1.491855669368489E-2</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
@@ -2647,7 +2647,7 @@
         <v>31198</v>
       </c>
       <c r="B276">
-        <v>1.7932805901946559E-2</v>
+        <v>1.7825141803926869E-2</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
@@ -2655,7 +2655,7 @@
         <v>31228</v>
       </c>
       <c r="B277">
-        <v>2.3573196096646789E-2</v>
+        <v>2.3171005569055679E-2</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
@@ -2663,7 +2663,7 @@
         <v>31259</v>
       </c>
       <c r="B278">
-        <v>-5.2445848270899799E-3</v>
+        <v>-4.5408459716396246E-3</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
@@ -2671,7 +2671,7 @@
         <v>31290</v>
       </c>
       <c r="B279">
-        <v>-1.378199846157825E-2</v>
+        <v>-1.3056818284709811E-2</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
@@ -2679,7 +2679,7 @@
         <v>31320</v>
       </c>
       <c r="B280">
-        <v>2.4599390491549258E-2</v>
+        <v>2.5359280840041371E-2</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
@@ -2687,7 +2687,7 @@
         <v>31351</v>
       </c>
       <c r="B281">
-        <v>1.7922357161865701E-2</v>
+        <v>1.7394810452114509E-2</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
@@ -2695,7 +2695,7 @@
         <v>31381</v>
       </c>
       <c r="B282">
-        <v>7.6238824351045897E-3</v>
+        <v>6.2136262363551159E-3</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
@@ -2703,7 +2703,7 @@
         <v>31412</v>
       </c>
       <c r="B283">
-        <v>2.2615118709259151E-2</v>
+        <v>2.3261636080683368E-2</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
@@ -2711,7 +2711,7 @@
         <v>31443</v>
       </c>
       <c r="B284">
-        <v>-1.8461195710435961E-3</v>
+        <v>-4.8178490734228988E-3</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
@@ -2719,7 +2719,7 @@
         <v>31471</v>
       </c>
       <c r="B285">
-        <v>8.7919285676991907E-3</v>
+        <v>7.6735262151553518E-3</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
@@ -2727,7 +2727,7 @@
         <v>31502</v>
       </c>
       <c r="B286">
-        <v>-1.9056016749712249E-2</v>
+        <v>-1.9235490795548489E-2</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
@@ -2735,7 +2735,7 @@
         <v>31532</v>
       </c>
       <c r="B287">
-        <v>-4.0529717772479854E-3</v>
+        <v>-3.745697012082183E-3</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
@@ -2743,7 +2743,7 @@
         <v>31563</v>
       </c>
       <c r="B288">
-        <v>9.5264081864133154E-3</v>
+        <v>9.5108339721339946E-3</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
@@ -2751,7 +2751,7 @@
         <v>31593</v>
       </c>
       <c r="B289">
-        <v>3.9610524536097969E-3</v>
+        <v>3.8685793116318792E-3</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
@@ -2759,7 +2759,7 @@
         <v>31624</v>
       </c>
       <c r="B290">
-        <v>2.5594909275970589E-2</v>
+        <v>2.4680967218753309E-2</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
@@ -2767,7 +2767,7 @@
         <v>31655</v>
       </c>
       <c r="B291">
-        <v>-1.5732544600640389E-2</v>
+        <v>-1.474198023449614E-2</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
@@ -2775,7 +2775,7 @@
         <v>31685</v>
       </c>
       <c r="B292">
-        <v>-2.4567239083557291E-2</v>
+        <v>-2.5378391488150159E-2</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
@@ -2783,7 +2783,7 @@
         <v>31716</v>
       </c>
       <c r="B293">
-        <v>1.49462666888852E-2</v>
+        <v>1.345971581946722E-2</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
@@ -2791,7 +2791,7 @@
         <v>31746</v>
       </c>
       <c r="B294">
-        <v>2.793970760638895E-3</v>
+        <v>2.4820690345482769E-3</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
@@ -2799,7 +2799,7 @@
         <v>31777</v>
       </c>
       <c r="B295">
-        <v>-1.0530384305513991E-3</v>
+        <v>-1.1022909722924021E-3</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
@@ -2807,7 +2807,7 @@
         <v>31808</v>
       </c>
       <c r="B296">
-        <v>-1.785775669046433E-2</v>
+        <v>-1.7192648582700448E-2</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
@@ -2815,7 +2815,7 @@
         <v>31836</v>
       </c>
       <c r="B297">
-        <v>-8.1032028597355574E-3</v>
+        <v>-7.6298897883445294E-3</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
@@ -2823,7 +2823,7 @@
         <v>31867</v>
       </c>
       <c r="B298">
-        <v>-2.2116351886343841E-2</v>
+        <v>-2.270756092677096E-2</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
@@ -2831,7 +2831,7 @@
         <v>31897</v>
       </c>
       <c r="B299">
-        <v>-4.2628551192721201E-2</v>
+        <v>-4.2221725867629192E-2</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
@@ -2839,7 +2839,7 @@
         <v>31928</v>
       </c>
       <c r="B300">
-        <v>-1.3481306536438169E-3</v>
+        <v>-1.263456343690941E-3</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
@@ -2847,7 +2847,7 @@
         <v>31958</v>
       </c>
       <c r="B301">
-        <v>4.0995066299586366E-3</v>
+        <v>4.2943571525896063E-3</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
@@ -2855,7 +2855,7 @@
         <v>31989</v>
       </c>
       <c r="B302">
-        <v>-4.0918034010920583E-2</v>
+        <v>-4.1174242097785703E-2</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
@@ -2863,7 +2863,7 @@
         <v>32020</v>
       </c>
       <c r="B303">
-        <v>3.5823146764355773E-2</v>
+        <v>3.5848294319985298E-2</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
@@ -2871,7 +2871,7 @@
         <v>32050</v>
       </c>
       <c r="B304">
-        <v>-2.1399995555945101E-2</v>
+        <v>-2.159102378259958E-2</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
@@ -2879,7 +2879,7 @@
         <v>32081</v>
       </c>
       <c r="B305">
-        <v>4.6178490964225272E-2</v>
+        <v>4.5850913523741148E-2</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
@@ -2887,7 +2887,7 @@
         <v>32111</v>
       </c>
       <c r="B306">
-        <v>-9.165588443743343E-3</v>
+        <v>-8.8610997552183296E-3</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
@@ -2895,7 +2895,7 @@
         <v>32142</v>
       </c>
       <c r="B307">
-        <v>2.979789242743253E-2</v>
+        <v>2.957504030641871E-2</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
@@ -2903,7 +2903,7 @@
         <v>32173</v>
       </c>
       <c r="B308">
-        <v>-2.2519148675550649E-2</v>
+        <v>-2.265381730290968E-2</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
@@ -2911,7 +2911,7 @@
         <v>32202</v>
       </c>
       <c r="B309">
-        <v>-5.0690144047224606E-4</v>
+        <v>-7.3740767763384729E-4</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
@@ -2919,7 +2919,7 @@
         <v>32233</v>
       </c>
       <c r="B310">
-        <v>-2.0847412474582511E-2</v>
+        <v>-2.0059747703653919E-2</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
@@ -2927,7 +2927,7 @@
         <v>32263</v>
       </c>
       <c r="B311">
-        <v>-2.1628221666833401E-2</v>
+        <v>-2.1728214756791101E-2</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
@@ -2935,7 +2935,7 @@
         <v>32294</v>
       </c>
       <c r="B312">
-        <v>5.2462528656368832E-3</v>
+        <v>5.1044425550057296E-3</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
@@ -2943,7 +2943,7 @@
         <v>32324</v>
       </c>
       <c r="B313">
-        <v>5.4957426582986496E-3</v>
+        <v>5.8392441367985104E-3</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
@@ -2951,7 +2951,7 @@
         <v>32355</v>
       </c>
       <c r="B314">
-        <v>-1.2101905727093061E-2</v>
+        <v>-1.1596424176782E-2</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
@@ -2959,7 +2959,7 @@
         <v>32386</v>
       </c>
       <c r="B315">
-        <v>-6.7625747098653934E-3</v>
+        <v>-6.7886345297375611E-3</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
@@ -2967,7 +2967,7 @@
         <v>32416</v>
       </c>
       <c r="B316">
-        <v>8.265877264392707E-3</v>
+        <v>8.5898240479804662E-3</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
@@ -2975,7 +2975,7 @@
         <v>32447</v>
       </c>
       <c r="B317">
-        <v>1.0985649739380061E-2</v>
+        <v>1.092070199693785E-2</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
@@ -2983,7 +2983,7 @@
         <v>32477</v>
       </c>
       <c r="B318">
-        <v>5.658338439957375E-3</v>
+        <v>5.7306578825619854E-3</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
@@ -2991,7 +2991,7 @@
         <v>32508</v>
       </c>
       <c r="B319">
-        <v>-5.7644877519996279E-3</v>
+        <v>-6.0151463815254283E-3</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
@@ -2999,7 +2999,7 @@
         <v>32539</v>
       </c>
       <c r="B320">
-        <v>-2.6236252086721649E-2</v>
+        <v>-2.626435401083688E-2</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
@@ -3007,7 +3007,7 @@
         <v>32567</v>
       </c>
       <c r="B321">
-        <v>-1.742226255013193E-2</v>
+        <v>-1.748056956779695E-2</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
@@ -3015,7 +3015,7 @@
         <v>32598</v>
       </c>
       <c r="B322">
-        <v>-2.0928295791934159E-3</v>
+        <v>-1.901723010679732E-3</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
@@ -3023,7 +3023,7 @@
         <v>32628</v>
       </c>
       <c r="B323">
-        <v>-9.8662676670951965E-4</v>
+        <v>-6.9110670491079329E-4</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
@@ -3031,7 +3031,7 @@
         <v>32659</v>
       </c>
       <c r="B324">
-        <v>5.0729160994254776E-3</v>
+        <v>5.1521448901800104E-3</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
@@ -3039,7 +3039,7 @@
         <v>32689</v>
       </c>
       <c r="B325">
-        <v>8.0378953662651846E-4</v>
+        <v>1.8833427399758749E-3</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
@@ -3047,7 +3047,7 @@
         <v>32720</v>
       </c>
       <c r="B326">
-        <v>1.216430547379478E-2</v>
+        <v>1.209010541138607E-2</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
@@ -3055,7 +3055,7 @@
         <v>32751</v>
       </c>
       <c r="B327">
-        <v>-1.4452321276679839E-2</v>
+        <v>-1.482561002575367E-2</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
@@ -3063,7 +3063,7 @@
         <v>32781</v>
       </c>
       <c r="B328">
-        <v>6.6979585635393267E-3</v>
+        <v>6.4806808252097694E-3</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
@@ -3071,7 +3071,7 @@
         <v>32812</v>
       </c>
       <c r="B329">
-        <v>1.9074345861895381E-2</v>
+        <v>1.9006112685688831E-2</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
@@ -3079,7 +3079,7 @@
         <v>32842</v>
       </c>
       <c r="B330">
-        <v>-9.8854339406562255E-3</v>
+        <v>-1.062282699828814E-2</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
@@ -3087,7 +3087,7 @@
         <v>32873</v>
       </c>
       <c r="B331">
-        <v>9.6933736225970624E-3</v>
+        <v>9.2913791641842207E-3</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
@@ -3095,7 +3095,7 @@
         <v>32904</v>
       </c>
       <c r="B332">
-        <v>4.4431315792327064E-3</v>
+        <v>4.2791494969988964E-3</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
@@ -3103,7 +3103,7 @@
         <v>32932</v>
       </c>
       <c r="B333">
-        <v>-1.262609308904197E-2</v>
+        <v>-1.2735670546250379E-2</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
@@ -3111,7 +3111,7 @@
         <v>32963</v>
       </c>
       <c r="B334">
-        <v>1.350337007441098E-2</v>
+        <v>1.3652644460697441E-2</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
@@ -3119,7 +3119,7 @@
         <v>32993</v>
       </c>
       <c r="B335">
-        <v>1.8196554712571689E-2</v>
+        <v>1.7812732739527048E-2</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
@@ -3127,7 +3127,7 @@
         <v>33024</v>
       </c>
       <c r="B336">
-        <v>1.343636324768846E-2</v>
+        <v>1.2914299228568109E-2</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.35">
@@ -3135,7 +3135,7 @@
         <v>33054</v>
       </c>
       <c r="B337">
-        <v>5.1906125666770202E-3</v>
+        <v>5.2572491657413862E-3</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.35">
@@ -3143,7 +3143,7 @@
         <v>33085</v>
       </c>
       <c r="B338">
-        <v>5.930179054663913E-3</v>
+        <v>5.9073729884931217E-3</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
@@ -3151,7 +3151,7 @@
         <v>33116</v>
       </c>
       <c r="B339">
-        <v>-8.2804602726957444E-3</v>
+        <v>-8.4880402637267649E-3</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.35">
@@ -3159,7 +3159,7 @@
         <v>33146</v>
       </c>
       <c r="B340">
-        <v>2.8429761004577642E-2</v>
+        <v>2.8725042215751981E-2</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.35">
@@ -3167,7 +3167,7 @@
         <v>33177</v>
       </c>
       <c r="B341">
-        <v>3.8985427083711048E-2</v>
+        <v>3.9182067914292448E-2</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.35">
@@ -3175,7 +3175,7 @@
         <v>33207</v>
       </c>
       <c r="B342">
-        <v>-2.0757150905612032E-3</v>
+        <v>-1.1224708687674471E-3</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.35">
@@ -3183,7 +3183,7 @@
         <v>33238</v>
       </c>
       <c r="B343">
-        <v>4.9156044980226452E-2</v>
+        <v>4.9532724357634748E-2</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.35">
@@ -3191,7 +3191,7 @@
         <v>33269</v>
       </c>
       <c r="B344">
-        <v>1.53984648441903E-2</v>
+        <v>1.632596660681182E-2</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.35">
@@ -3199,7 +3199,7 @@
         <v>33297</v>
       </c>
       <c r="B345">
-        <v>-2.6696879079642161E-2</v>
+        <v>-2.7523346525307139E-2</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.35">
@@ -3207,7 +3207,7 @@
         <v>33328</v>
       </c>
       <c r="B346">
-        <v>-4.8271801305143766E-3</v>
+        <v>-4.8562391516525222E-3</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.35">
@@ -3215,7 +3215,7 @@
         <v>33358</v>
       </c>
       <c r="B347">
-        <v>1.068279185892493E-2</v>
+        <v>1.0840664545631189E-2</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
@@ -3223,7 +3223,7 @@
         <v>33389</v>
       </c>
       <c r="B348">
-        <v>5.2787086410485198E-3</v>
+        <v>4.9200291620457226E-3</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
@@ -3231,7 +3231,7 @@
         <v>33419</v>
       </c>
       <c r="B349">
-        <v>2.131824737275979E-2</v>
+        <v>2.0620586168449188E-2</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.35">
@@ -3239,7 +3239,7 @@
         <v>33450</v>
       </c>
       <c r="B350">
-        <v>2.030458328780263E-2</v>
+        <v>2.2501687003280299E-2</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.35">
@@ -3247,7 +3247,7 @@
         <v>33481</v>
       </c>
       <c r="B351">
-        <v>9.2005503296915536E-3</v>
+        <v>8.7656595868012069E-3</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.35">
@@ -3255,7 +3255,7 @@
         <v>33511</v>
       </c>
       <c r="B352">
-        <v>-6.7751755588789419E-3</v>
+        <v>-1.0437318858024749E-2</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.35">
@@ -3263,7 +3263,7 @@
         <v>33542</v>
       </c>
       <c r="B353">
-        <v>-1.5175277531828579E-3</v>
+        <v>-1.6802845967327539E-3</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.35">
@@ -3271,7 +3271,7 @@
         <v>33572</v>
       </c>
       <c r="B354">
-        <v>7.2530130309697016E-3</v>
+        <v>-8.203742570161987E-5</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.35">
@@ -3279,7 +3279,7 @@
         <v>33603</v>
       </c>
       <c r="B355">
-        <v>4.765529886102092E-2</v>
+        <v>5.562245297063529E-2</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.35">
@@ -3287,7 +3287,7 @@
         <v>33634</v>
       </c>
       <c r="B356">
-        <v>-3.963073043720465E-2</v>
+        <v>-3.5098010484547831E-2</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.35">
@@ -3295,7 +3295,7 @@
         <v>33663</v>
       </c>
       <c r="B357">
-        <v>-2.001104044083022E-2</v>
+        <v>-1.522213762178912E-2</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.35">
@@ -3303,7 +3303,7 @@
         <v>33694</v>
       </c>
       <c r="B358">
-        <v>1.2065841876869601E-3</v>
+        <v>6.2973941761038099E-4</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.35">
@@ -3311,7 +3311,7 @@
         <v>33724</v>
       </c>
       <c r="B359">
-        <v>2.0653996202709551E-2</v>
+        <v>2.2842094709151231E-2</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.35">
@@ -3319,7 +3319,7 @@
         <v>33755</v>
       </c>
       <c r="B360">
-        <v>2.8434840194335349E-3</v>
+        <v>-2.2629633503945899E-3</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.35">
@@ -3327,7 +3327,7 @@
         <v>33785</v>
       </c>
       <c r="B361">
-        <v>2.492963805736299E-2</v>
+        <v>3.1810554376688872E-2</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
@@ -3335,7 +3335,7 @@
         <v>33816</v>
       </c>
       <c r="B362">
-        <v>1.19898788860839E-2</v>
+        <v>1.1871897724007119E-2</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.35">
@@ -3343,7 +3343,7 @@
         <v>33847</v>
       </c>
       <c r="B363">
-        <v>2.215672611059262E-2</v>
+        <v>2.161245632921429E-2</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.35">
@@ -3351,7 +3351,7 @@
         <v>33877</v>
       </c>
       <c r="B364">
-        <v>5.0404598882059573E-3</v>
+        <v>5.2435369189485744E-3</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.35">
@@ -3359,7 +3359,7 @@
         <v>33908</v>
       </c>
       <c r="B365">
-        <v>6.5553589945815324E-3</v>
+        <v>6.8971299544812936E-3</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.35">
@@ -3367,7 +3367,7 @@
         <v>33938</v>
       </c>
       <c r="B366">
-        <v>-1.3424598131561419E-2</v>
+        <v>-1.3503088124910891E-2</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.35">
@@ -3375,7 +3375,7 @@
         <v>33969</v>
       </c>
       <c r="B367">
-        <v>-1.380232925473349E-2</v>
+        <v>-1.38760788372824E-2</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.35">
@@ -3383,7 +3383,7 @@
         <v>34000</v>
       </c>
       <c r="B368">
-        <v>-4.0638204869030983E-2</v>
+        <v>-4.0670760314357179E-2</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.35">
@@ -3391,7 +3391,7 @@
         <v>34028</v>
       </c>
       <c r="B369">
-        <v>-3.3617060367503518E-2</v>
+        <v>-3.3750711132476068E-2</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.35">
@@ -3399,7 +3399,7 @@
         <v>34059</v>
       </c>
       <c r="B370">
-        <v>-4.9198352292503904E-3</v>
+        <v>-4.7446615810730454E-3</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.35">
@@ -3407,7 +3407,7 @@
         <v>34089</v>
       </c>
       <c r="B371">
-        <v>1.1699191764752089E-2</v>
+        <v>1.128193532490666E-2</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.35">
@@ -3415,7 +3415,7 @@
         <v>34120</v>
       </c>
       <c r="B372">
-        <v>-2.010467618819543E-2</v>
+        <v>-1.939842826830113E-2</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.35">
@@ -3423,7 +3423,7 @@
         <v>34150</v>
       </c>
       <c r="B373">
-        <v>-1.172160298053984E-2</v>
+        <v>-1.170435958034613E-2</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.35">
@@ -3431,7 +3431,7 @@
         <v>34181</v>
       </c>
       <c r="B374">
-        <v>6.6613961053846281E-3</v>
+        <v>6.2587832353573659E-3</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.35">
@@ -3439,7 +3439,7 @@
         <v>34212</v>
       </c>
       <c r="B375">
-        <v>-9.7080944733360167E-3</v>
+        <v>-1.116322010588645E-2</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.35">
@@ -3447,7 +3447,7 @@
         <v>34242</v>
       </c>
       <c r="B376">
-        <v>1.2657928916683251E-2</v>
+        <v>1.491171535884925E-2</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.35">
@@ -3455,7 +3455,7 @@
         <v>34273</v>
       </c>
       <c r="B377">
-        <v>-1.627817669109935E-2</v>
+        <v>-1.8769619047694398E-2</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.35">
@@ -3463,7 +3463,7 @@
         <v>34303</v>
       </c>
       <c r="B378">
-        <v>-1.4878932206655E-2</v>
+        <v>-1.3762605203352761E-2</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.35">
@@ -3471,7 +3471,7 @@
         <v>34334</v>
       </c>
       <c r="B379">
-        <v>1.400076298703954E-3</v>
+        <v>2.0147595299903928E-3</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.35">
@@ -3479,7 +3479,7 @@
         <v>34365</v>
       </c>
       <c r="B380">
-        <v>-3.8948508618205008E-2</v>
+        <v>-3.7648286703154482E-2</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.35">
@@ -3487,7 +3487,7 @@
         <v>34393</v>
       </c>
       <c r="B381">
-        <v>1.3356064995832469E-2</v>
+        <v>1.103701751840333E-2</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.35">
@@ -3495,7 +3495,7 @@
         <v>34424</v>
       </c>
       <c r="B382">
-        <v>2.7350489289998531E-3</v>
+        <v>4.6550363360119279E-3</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.35">
@@ -3503,7 +3503,7 @@
         <v>34454</v>
       </c>
       <c r="B383">
-        <v>-1.079773868576678E-3</v>
+        <v>-4.3151308833540292E-4</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.35">
@@ -3511,7 +3511,7 @@
         <v>34485</v>
       </c>
       <c r="B384">
-        <v>-1.2256745296496179E-2</v>
+        <v>-1.215436297610841E-2</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.35">
@@ -3519,7 +3519,7 @@
         <v>34515</v>
       </c>
       <c r="B385">
-        <v>9.8749166052310502E-3</v>
+        <v>8.0847569128960212E-3</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.35">
@@ -3527,7 +3527,7 @@
         <v>34546</v>
       </c>
       <c r="B386">
-        <v>-8.7260007554664093E-3</v>
+        <v>-8.5186232531500386E-3</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.35">
@@ -3535,7 +3535,7 @@
         <v>34577</v>
       </c>
       <c r="B387">
-        <v>-4.6672410780982532E-4</v>
+        <v>-6.7995844306571046E-4</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.35">
@@ -3543,7 +3543,7 @@
         <v>34607</v>
       </c>
       <c r="B388">
-        <v>1.3703760224794959E-2</v>
+        <v>1.382805386617642E-2</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.35">
@@ -3551,7 +3551,7 @@
         <v>34638</v>
       </c>
       <c r="B389">
-        <v>2.072262662381193E-2</v>
+        <v>2.095677098036227E-2</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.35">
@@ -3559,7 +3559,7 @@
         <v>34668</v>
       </c>
       <c r="B390">
-        <v>2.4444655193793661E-2</v>
+        <v>2.457114417149418E-2</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.35">
@@ -3567,7 +3567,7 @@
         <v>34699</v>
       </c>
       <c r="B391">
-        <v>5.0158787543395193E-3</v>
+        <v>5.0710709897760099E-3</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.35">
@@ -3575,7 +3575,7 @@
         <v>34730</v>
       </c>
       <c r="B392">
-        <v>7.7888223402024972E-3</v>
+        <v>8.2836341942693365E-3</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.35">
@@ -3583,7 +3583,7 @@
         <v>34758</v>
       </c>
       <c r="B393">
-        <v>-8.2499302769168947E-3</v>
+        <v>-8.4232216132175686E-3</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.35">
@@ -3591,7 +3591,7 @@
         <v>34789</v>
       </c>
       <c r="B394">
-        <v>-2.3131231299405451E-3</v>
+        <v>-2.6292249815566761E-3</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.35">
@@ -3599,7 +3599,7 @@
         <v>34819</v>
       </c>
       <c r="B395">
-        <v>-4.9517707897211256E-3</v>
+        <v>-4.9704584953101554E-3</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.35">
@@ -3607,7 +3607,7 @@
         <v>34850</v>
       </c>
       <c r="B396">
-        <v>1.1452486193411181E-2</v>
+        <v>1.1429070364007929E-2</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.35">
@@ -3615,7 +3615,7 @@
         <v>34880</v>
       </c>
       <c r="B397">
-        <v>-3.9624647580444464E-3</v>
+        <v>-4.496306897282587E-3</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.35">
@@ -3623,7 +3623,7 @@
         <v>34911</v>
       </c>
       <c r="B398">
-        <v>2.447244589845896E-3</v>
+        <v>2.4492626403926012E-3</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.35">
@@ -3631,7 +3631,7 @@
         <v>34942</v>
       </c>
       <c r="B399">
-        <v>-2.137180329407035E-2</v>
+        <v>-2.1366587075785461E-2</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.35">
@@ -3639,7 +3639,7 @@
         <v>34972</v>
       </c>
       <c r="B400">
-        <v>2.8178336389994028E-2</v>
+        <v>2.8178144359573162E-2</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.35">
@@ -3647,7 +3647,7 @@
         <v>35003</v>
       </c>
       <c r="B401">
-        <v>4.2218612914565211E-2</v>
+        <v>4.2227379750524187E-2</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.35">
@@ -3655,7 +3655,7 @@
         <v>35033</v>
       </c>
       <c r="B402">
-        <v>-7.2709410317816289E-3</v>
+        <v>-7.2717750012664456E-3</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.35">
@@ -3663,7 +3663,7 @@
         <v>35064</v>
       </c>
       <c r="B403">
-        <v>2.9734253777661881E-3</v>
+        <v>2.9756285461705989E-3</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.35">
@@ -3671,7 +3671,7 @@
         <v>35095</v>
       </c>
       <c r="B404">
-        <v>-1.4069342986976791E-2</v>
+        <v>-1.406699382762039E-2</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.35">
@@ -3679,7 +3679,7 @@
         <v>35124</v>
       </c>
       <c r="B405">
-        <v>5.1509481959434028E-3</v>
+        <v>5.1434419264616664E-3</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.35">
@@ -3687,7 +3687,7 @@
         <v>35155</v>
       </c>
       <c r="B406">
-        <v>1.0237493989795311E-3</v>
+        <v>1.0215154268853159E-3</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.35">
@@ -3695,7 +3695,7 @@
         <v>35185</v>
       </c>
       <c r="B407">
-        <v>-1.5485330273316869E-2</v>
+        <v>-1.54891318858519E-2</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.35">
@@ -3703,7 +3703,7 @@
         <v>35216</v>
       </c>
       <c r="B408">
-        <v>3.4995933474498068E-3</v>
+        <v>3.5025659449144791E-3</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.35">
@@ -3711,7 +3711,7 @@
         <v>35246</v>
       </c>
       <c r="B409">
-        <v>9.3211756595801901E-3</v>
+        <v>9.3148563600300403E-3</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.35">
@@ -3719,7 +3719,7 @@
         <v>35277</v>
       </c>
       <c r="B410">
-        <v>2.338551132143982E-2</v>
+        <v>2.3387467365581671E-2</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.35">
@@ -3727,7 +3727,7 @@
         <v>35308</v>
       </c>
       <c r="B411">
-        <v>4.9335797793727959E-4</v>
+        <v>4.9153872278384636E-4</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.35">
@@ -3735,7 +3735,7 @@
         <v>35338</v>
       </c>
       <c r="B412">
-        <v>1.4698312522620169E-2</v>
+        <v>1.470196730140517E-2</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.35">
@@ -3743,7 +3743,7 @@
         <v>35369</v>
       </c>
       <c r="B413">
-        <v>1.9405411114505191E-2</v>
+        <v>1.9401958665537278E-2</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.35">
@@ -3751,7 +3751,7 @@
         <v>35399</v>
       </c>
       <c r="B414">
-        <v>2.002618481891497E-2</v>
+        <v>2.0010124268164821E-2</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.35">
@@ -3759,7 +3759,7 @@
         <v>35430</v>
       </c>
       <c r="B415">
-        <v>-1.362509228331399E-3</v>
+        <v>-1.3535651922948269E-3</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.35">
@@ -3767,7 +3767,7 @@
         <v>35461</v>
       </c>
       <c r="B416">
-        <v>7.646922779440346E-3</v>
+        <v>7.646426476333977E-3</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.35">
@@ -3775,7 +3775,7 @@
         <v>35489</v>
       </c>
       <c r="B417">
-        <v>9.627998894100296E-3</v>
+        <v>9.6276939193327936E-3</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.35">
@@ -3783,7 +3783,7 @@
         <v>35520</v>
       </c>
       <c r="B418">
-        <v>3.2057743587614179E-3</v>
+        <v>3.205551511641383E-3</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.35">
@@ -3791,7 +3791,7 @@
         <v>35550</v>
       </c>
       <c r="B419">
-        <v>3.7186238374646657E-2</v>
+        <v>3.7185694036278458E-2</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.35">
@@ -3799,7 +3799,7 @@
         <v>35581</v>
       </c>
       <c r="B420">
-        <v>2.0362158288916988E-3</v>
+        <v>2.0332617518629692E-3</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.35">
@@ -3807,7 +3807,7 @@
         <v>35611</v>
       </c>
       <c r="B421">
-        <v>1.1289363771612699E-2</v>
+        <v>1.1286351536353869E-2</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.35">
@@ -3815,7 +3815,7 @@
         <v>35642</v>
       </c>
       <c r="B422">
-        <v>-2.243859882106496E-2</v>
+        <v>-2.2438576452349829E-2</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.35">
@@ -3823,7 +3823,7 @@
         <v>35673</v>
       </c>
       <c r="B423">
-        <v>-1.399631081193041E-2</v>
+        <v>-1.399760081235382E-2</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.35">
@@ -3831,7 +3831,7 @@
         <v>35703</v>
       </c>
       <c r="B424">
-        <v>-1.9993525805494631E-2</v>
+        <v>-1.9994239424699949E-2</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.35">
@@ -3839,7 +3839,7 @@
         <v>35734</v>
       </c>
       <c r="B425">
-        <v>1.892310187932136E-2</v>
+        <v>1.8923128550217591E-2</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.35">
@@ -3847,7 +3847,7 @@
         <v>35764</v>
       </c>
       <c r="B426">
-        <v>2.704714902295029E-2</v>
+        <v>2.7043744535306152E-2</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.35">
@@ -3855,7 +3855,7 @@
         <v>35795</v>
       </c>
       <c r="B427">
-        <v>1.131968271318828E-2</v>
+        <v>1.131310357587197E-2</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.35">
@@ -3863,7 +3863,7 @@
         <v>35826</v>
       </c>
       <c r="B428">
-        <v>4.2464012285818821E-3</v>
+        <v>4.2474034842445952E-3</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.35">
@@ -3871,7 +3871,7 @@
         <v>35854</v>
       </c>
       <c r="B429">
-        <v>6.3846080795432747E-3</v>
+        <v>6.3847678828512361E-3</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.35">
@@ -3879,7 +3879,7 @@
         <v>35885</v>
       </c>
       <c r="B430">
-        <v>-6.7521104916585251E-3</v>
+        <v>-6.7506482470310741E-3</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.35">
@@ -3887,7 +3887,7 @@
         <v>35915</v>
       </c>
       <c r="B431">
-        <v>-3.6333730719309502E-2</v>
+        <v>-3.6335911404546513E-2</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.35">
@@ -3895,7 +3895,7 @@
         <v>35946</v>
       </c>
       <c r="B432">
-        <v>2.4304546399415379E-2</v>
+        <v>2.430612468022034E-2</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.35">
@@ -3903,7 +3903,7 @@
         <v>35976</v>
       </c>
       <c r="B433">
-        <v>-8.645129059234799E-3</v>
+        <v>-8.6493560655616399E-3</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.35">
@@ -3911,7 +3911,7 @@
         <v>36007</v>
       </c>
       <c r="B434">
-        <v>2.4102999993024228E-3</v>
+        <v>2.40953717748997E-3</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.35">
@@ -3919,7 +3919,7 @@
         <v>36038</v>
       </c>
       <c r="B435">
-        <v>4.0776717053447098E-2</v>
+        <v>4.0776093764055048E-2</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.35">
@@ -3927,7 +3927,7 @@
         <v>36068</v>
       </c>
       <c r="B436">
-        <v>-3.9508958651260084E-3</v>
+        <v>-3.9415797621032136E-3</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.35">
@@ -3935,7 +3935,7 @@
         <v>36099</v>
       </c>
       <c r="B437">
-        <v>1.1472476951438781E-2</v>
+        <v>1.1467967524711121E-2</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.35">
@@ -3943,7 +3943,7 @@
         <v>36129</v>
       </c>
       <c r="B438">
-        <v>-1.414152449668424E-2</v>
+        <v>-1.4144900331397261E-2</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.35">
@@ -3951,7 +3951,7 @@
         <v>36160</v>
       </c>
       <c r="B439">
-        <v>2.5248912247245042E-4</v>
+        <v>2.5103407983769621E-4</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.35">
@@ -3959,7 +3959,7 @@
         <v>36191</v>
       </c>
       <c r="B440">
-        <v>-4.7298048345580108E-2</v>
+        <v>-4.7298076686619631E-2</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.35">
@@ -3967,7 +3967,7 @@
         <v>36219</v>
       </c>
       <c r="B441">
-        <v>-1.9963609732346361E-2</v>
+        <v>-1.9963454024008152E-2</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.35">
@@ -3975,7 +3975,7 @@
         <v>36250</v>
       </c>
       <c r="B442">
-        <v>-2.127055673868563E-2</v>
+        <v>-2.1270589411581341E-2</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.35">
@@ -3983,7 +3983,7 @@
         <v>36280</v>
       </c>
       <c r="B443">
-        <v>-3.9151506482569438E-2</v>
+        <v>-3.9152544055664248E-2</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.35">
@@ -3991,7 +3991,7 @@
         <v>36311</v>
       </c>
       <c r="B444">
-        <v>1.9831161561228852E-2</v>
+        <v>1.9832412069041312E-2</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.35">
@@ -3999,7 +3999,7 @@
         <v>36341</v>
       </c>
       <c r="B445">
-        <v>1.8871117202765811E-2</v>
+        <v>1.8869328669947689E-2</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.35">
@@ -4007,7 +4007,7 @@
         <v>36372</v>
       </c>
       <c r="B446">
-        <v>-4.9436419401759947E-3</v>
+        <v>-4.9370613091365614E-3</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.35">
@@ -4015,7 +4015,7 @@
         <v>36403</v>
       </c>
       <c r="B447">
-        <v>2.5407673512309211E-2</v>
+        <v>2.5395608907273551E-2</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.35">
@@ -4023,7 +4023,7 @@
         <v>36433</v>
       </c>
       <c r="B448">
-        <v>3.020481384683004E-3</v>
+        <v>3.0207541804876102E-3</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.35">
@@ -4031,7 +4031,7 @@
         <v>36464</v>
       </c>
       <c r="B449">
-        <v>-2.042792186062091E-3</v>
+        <v>-2.0455505438906388E-3</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.35">
@@ -4039,7 +4039,7 @@
         <v>36494</v>
       </c>
       <c r="B450">
-        <v>-4.4393879865529812E-3</v>
+        <v>-4.4390567739941017E-3</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.35">
@@ -4047,7 +4047,7 @@
         <v>36525</v>
       </c>
       <c r="B451">
-        <v>-2.381792901653251E-2</v>
+        <v>-2.382162911898628E-2</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.35">
@@ -4055,7 +4055,7 @@
         <v>36556</v>
       </c>
       <c r="B452">
-        <v>-6.1027847090999253E-2</v>
+        <v>-6.1024963178186328E-2</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.35">
@@ -4063,7 +4063,7 @@
         <v>36585</v>
       </c>
       <c r="B453">
-        <v>-5.8177085484105502E-2</v>
+        <v>-5.817518967512264E-2</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.35">
@@ -4071,7 +4071,7 @@
         <v>36616</v>
       </c>
       <c r="B454">
-        <v>4.6500507543822532E-2</v>
+        <v>4.6500629546608961E-2</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.35">
@@ -4079,7 +4079,7 @@
         <v>36646</v>
       </c>
       <c r="B455">
-        <v>5.592741651736742E-2</v>
+        <v>5.5927162361496342E-2</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.35">
@@ -4087,7 +4087,7 @@
         <v>36677</v>
       </c>
       <c r="B456">
-        <v>3.406650216283474E-3</v>
+        <v>3.407695684007173E-3</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.35">
@@ -4095,7 +4095,7 @@
         <v>36707</v>
       </c>
       <c r="B457">
-        <v>-1.311636698129107E-2</v>
+        <v>-1.311756328621262E-2</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.35">
@@ -4103,7 +4103,7 @@
         <v>36738</v>
       </c>
       <c r="B458">
-        <v>3.7791091667274013E-2</v>
+        <v>3.7791737272369362E-2</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.35">
@@ -4111,7 +4111,7 @@
         <v>36769</v>
       </c>
       <c r="B459">
-        <v>-3.1337106585897417E-2</v>
+        <v>-3.1338869114167972E-2</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.35">
@@ -4119,7 +4119,7 @@
         <v>36799</v>
       </c>
       <c r="B460">
-        <v>1.189823368398304E-2</v>
+        <v>1.189985379493667E-2</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.35">
@@ -4127,7 +4127,7 @@
         <v>36830</v>
       </c>
       <c r="B461">
-        <v>6.4167878664755651E-2</v>
+        <v>6.4167827857867649E-2</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.35">
@@ -4135,7 +4135,7 @@
         <v>36860</v>
       </c>
       <c r="B462">
-        <v>7.5614431040994037E-2</v>
+        <v>7.5614339742781991E-2</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.35">
@@ -4143,7 +4143,7 @@
         <v>36891</v>
       </c>
       <c r="B463">
-        <v>-4.5273670184215603E-5</v>
+        <v>-4.6533195887991242E-5</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.35">
@@ -4151,7 +4151,7 @@
         <v>36922</v>
       </c>
       <c r="B464">
-        <v>-3.0267295869410821E-2</v>
+        <v>-3.0269708400506381E-2</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.35">
@@ -4159,7 +4159,7 @@
         <v>36950</v>
       </c>
       <c r="B465">
-        <v>3.7289245098387491E-2</v>
+        <v>3.7290289569400448E-2</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.35">
@@ -4167,7 +4167,7 @@
         <v>36981</v>
       </c>
       <c r="B466">
-        <v>3.1966409199443678E-2</v>
+        <v>3.1967242257116578E-2</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.35">
@@ -4175,7 +4175,7 @@
         <v>37011</v>
       </c>
       <c r="B467">
-        <v>-2.6043079662099549E-2</v>
+        <v>-2.605975444645911E-2</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.35">
@@ -4183,7 +4183,7 @@
         <v>37042</v>
       </c>
       <c r="B468">
-        <v>-7.7194514867980693E-3</v>
+        <v>-7.718821399034792E-3</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.35">
@@ -4191,7 +4191,7 @@
         <v>37072</v>
       </c>
       <c r="B469">
-        <v>-5.6160176676697728E-3</v>
+        <v>-5.6303402763431586E-3</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.35">
@@ -4199,7 +4199,7 @@
         <v>37103</v>
       </c>
       <c r="B470">
-        <v>4.4771940818057361E-2</v>
+        <v>4.477089144758381E-2</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.35">
@@ -4207,7 +4207,7 @@
         <v>37134</v>
       </c>
       <c r="B471">
-        <v>4.4634294170897912E-2</v>
+        <v>4.4633165382246327E-2</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.35">
@@ -4215,7 +4215,7 @@
         <v>37164</v>
       </c>
       <c r="B472">
-        <v>5.0091154255243159E-2</v>
+        <v>5.0092517330074318E-2</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.35">
@@ -4223,7 +4223,7 @@
         <v>37195</v>
       </c>
       <c r="B473">
-        <v>4.1675987810469731E-2</v>
+        <v>4.1677974826112761E-2</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.35">
@@ -4231,7 +4231,7 @@
         <v>37225</v>
       </c>
       <c r="B474">
-        <v>-8.8734104023980853E-3</v>
+        <v>-8.8719976152090013E-3</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.35">
@@ -4239,7 +4239,7 @@
         <v>37256</v>
       </c>
       <c r="B475">
-        <v>-1.57730173497851E-2</v>
+        <v>-1.5773336707279172E-2</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.35">
@@ -4247,7 +4247,7 @@
         <v>37287</v>
       </c>
       <c r="B476">
-        <v>4.15183817858744E-2</v>
+        <v>4.153026422633635E-2</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.35">
@@ -4255,7 +4255,7 @@
         <v>37315</v>
       </c>
       <c r="B477">
-        <v>4.9909343422017097E-2</v>
+        <v>4.9909647361881762E-2</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.35">
@@ -4263,7 +4263,7 @@
         <v>37346</v>
       </c>
       <c r="B478">
-        <v>-8.5930834776452442E-3</v>
+        <v>-8.5945555087139774E-3</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.35">
@@ -4271,7 +4271,7 @@
         <v>37376</v>
       </c>
       <c r="B479">
-        <v>6.2349667397999659E-2</v>
+        <v>6.2346522070065843E-2</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.35">
@@ -4279,7 +4279,7 @@
         <v>37407</v>
       </c>
       <c r="B480">
-        <v>2.2364492317036841E-2</v>
+        <v>2.2365416429078789E-2</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.35">
@@ -4287,7 +4287,7 @@
         <v>37437</v>
       </c>
       <c r="B481">
-        <v>4.3571284959427289E-2</v>
+        <v>4.3570967233717561E-2</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.35">
@@ -4295,7 +4295,7 @@
         <v>37468</v>
       </c>
       <c r="B482">
-        <v>6.2534896745213966E-2</v>
+        <v>6.2535545011901714E-2</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.35">
@@ -4303,7 +4303,7 @@
         <v>37499</v>
       </c>
       <c r="B483">
-        <v>2.732390803144932E-2</v>
+        <v>2.732457730119937E-2</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.35">
@@ -4311,7 +4311,7 @@
         <v>37529</v>
       </c>
       <c r="B484">
-        <v>4.6951187753090533E-2</v>
+        <v>4.6950329834359761E-2</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.35">
@@ -4319,7 +4319,7 @@
         <v>37560</v>
       </c>
       <c r="B485">
-        <v>-3.604921472029908E-2</v>
+        <v>-3.6050806820702143E-2</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.35">
@@ -4327,7 +4327,7 @@
         <v>37590</v>
       </c>
       <c r="B486">
-        <v>-7.4099772567702726E-2</v>
+        <v>-7.4100767974101173E-2</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.35">
@@ -4335,7 +4335,7 @@
         <v>37621</v>
       </c>
       <c r="B487">
-        <v>3.1989933568838967E-2</v>
+        <v>3.199177253872576E-2</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.35">
@@ -4343,7 +4343,7 @@
         <v>37652</v>
       </c>
       <c r="B488">
-        <v>-2.3524779584448419E-2</v>
+        <v>-2.3524778160999221E-2</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.35">
@@ -4351,7 +4351,7 @@
         <v>37680</v>
       </c>
       <c r="B489">
-        <v>3.7721177845381343E-2</v>
+        <v>3.772152449285586E-2</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.35">
@@ -4359,7 +4359,7 @@
         <v>37711</v>
       </c>
       <c r="B490">
-        <v>7.2474451411020813E-3</v>
+        <v>7.2470507518144064E-3</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.35">
@@ -4367,7 +4367,7 @@
         <v>37741</v>
       </c>
       <c r="B491">
-        <v>-5.7060042507029618E-2</v>
+        <v>-5.7060886979336728E-2</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.35">
@@ -4375,7 +4375,7 @@
         <v>37772</v>
       </c>
       <c r="B492">
-        <v>-4.4380054385966261E-2</v>
+        <v>-4.438082934034307E-2</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.35">
@@ -4383,7 +4383,7 @@
         <v>37802</v>
       </c>
       <c r="B493">
-        <v>-1.6033475986857709E-2</v>
+        <v>-1.6031253737119621E-2</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.35">
@@ -4391,7 +4391,7 @@
         <v>37833</v>
       </c>
       <c r="B494">
-        <v>-1.189473584651967E-2</v>
+        <v>-1.189614785823404E-2</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.35">
@@ -4399,7 +4399,7 @@
         <v>37864</v>
       </c>
       <c r="B495">
-        <v>-1.8415159353474611E-2</v>
+        <v>-1.8415566580179021E-2</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.35">
@@ -4407,7 +4407,7 @@
         <v>37894</v>
       </c>
       <c r="B496">
-        <v>1.126079733272615E-3</v>
+        <v>1.1258935089011289E-3</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.35">
@@ -4415,7 +4415,7 @@
         <v>37925</v>
       </c>
       <c r="B497">
-        <v>-1.6251587543342948E-2</v>
+        <v>-1.6250584823856579E-2</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.35">
@@ -4423,7 +4423,7 @@
         <v>37955</v>
       </c>
       <c r="B498">
-        <v>-3.4517458303671278E-4</v>
+        <v>-3.4469506262058478E-4</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.35">
@@ -4431,7 +4431,7 @@
         <v>37986</v>
       </c>
       <c r="B499">
-        <v>-9.24476613550336E-3</v>
+        <v>-9.2431288411986418E-3</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.35">
@@ -4439,7 +4439,7 @@
         <v>38017</v>
       </c>
       <c r="B500">
-        <v>-4.7385587516452367E-2</v>
+        <v>-4.7387015727302362E-2</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.35">
@@ -4447,7 +4447,7 @@
         <v>38046</v>
       </c>
       <c r="B501">
-        <v>4.4459025900115516E-3</v>
+        <v>4.4451720454217226E-3</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.35">
@@ -4455,7 +4455,7 @@
         <v>38077</v>
       </c>
       <c r="B502">
-        <v>7.2738189959520921E-3</v>
+        <v>7.2736723622760313E-3</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.35">
@@ -4463,7 +4463,7 @@
         <v>38107</v>
       </c>
       <c r="B503">
-        <v>3.0113363103219781E-2</v>
+        <v>3.011335810416841E-2</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.35">
@@ -4471,7 +4471,7 @@
         <v>38138</v>
       </c>
       <c r="B504">
-        <v>-7.7974643541619919E-3</v>
+        <v>-7.7982769639679643E-3</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.35">
@@ -4479,7 +4479,7 @@
         <v>38168</v>
       </c>
       <c r="B505">
-        <v>-3.5408674126323971E-3</v>
+        <v>-3.5413316404438108E-3</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.35">
@@ -4487,7 +4487,7 @@
         <v>38199</v>
       </c>
       <c r="B506">
-        <v>2.0671249478275481E-2</v>
+        <v>2.0672215940192449E-2</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.35">
@@ -4495,7 +4495,7 @@
         <v>38230</v>
       </c>
       <c r="B507">
-        <v>-1.2787894409656761E-3</v>
+        <v>-1.278678700542359E-3</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.35">
@@ -4503,7 +4503,7 @@
         <v>38260</v>
       </c>
       <c r="B508">
-        <v>-1.7335003574073062E-2</v>
+        <v>-1.7335249976337092E-2</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.35">
@@ -4511,7 +4511,7 @@
         <v>38291</v>
       </c>
       <c r="B509">
-        <v>1.4139082694942409E-3</v>
+        <v>1.412902832394133E-3</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.35">
@@ -4519,7 +4519,7 @@
         <v>38321</v>
       </c>
       <c r="B510">
-        <v>-1.0847814036273121E-2</v>
+        <v>-1.0849729234086281E-2</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.35">
@@ -4527,7 +4527,7 @@
         <v>38352</v>
       </c>
       <c r="B511">
-        <v>-1.259073817319571E-2</v>
+        <v>-1.258900563565531E-2</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.35">
@@ -4535,7 +4535,7 @@
         <v>38383</v>
       </c>
       <c r="B512">
-        <v>1.957312288972066E-2</v>
+        <v>1.9572796920108989E-2</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.35">
@@ -4543,7 +4543,7 @@
         <v>38411</v>
       </c>
       <c r="B513">
-        <v>-9.1822095535461015E-3</v>
+        <v>-9.1824354256541361E-3</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.35">
@@ -4551,7 +4551,7 @@
         <v>38442</v>
       </c>
       <c r="B514">
-        <v>3.578286735177755E-3</v>
+        <v>3.5775935900567431E-3</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.35">
@@ -4559,7 +4559,7 @@
         <v>38472</v>
       </c>
       <c r="B515">
-        <v>1.2407407903599999E-2</v>
+        <v>1.240845539151344E-2</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.35">
@@ -4567,7 +4567,7 @@
         <v>38503</v>
       </c>
       <c r="B516">
-        <v>-4.2625676374395058E-3</v>
+        <v>-4.2636527131713004E-3</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.35">
@@ -4575,7 +4575,7 @@
         <v>38533</v>
       </c>
       <c r="B517">
-        <v>-1.487445274144554E-2</v>
+        <v>-1.487485528603495E-2</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.35">
@@ -4583,7 +4583,7 @@
         <v>38564</v>
       </c>
       <c r="B518">
-        <v>-1.3752388787170011E-2</v>
+        <v>-1.375237077180733E-2</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.35">
@@ -4591,7 +4591,7 @@
         <v>38595</v>
       </c>
       <c r="B519">
-        <v>-9.6726215333073264E-3</v>
+        <v>-9.6725168538968984E-3</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.35">
@@ -4599,7 +4599,7 @@
         <v>38625</v>
       </c>
       <c r="B520">
-        <v>-1.250320065926493E-2</v>
+        <v>-1.2503209281777609E-2</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.35">
@@ -4607,7 +4607,7 @@
         <v>38656</v>
       </c>
       <c r="B521">
-        <v>2.8824381922333539E-2</v>
+        <v>2.882448317093295E-2</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.35">
@@ -4615,7 +4615,7 @@
         <v>38686</v>
       </c>
       <c r="B522">
-        <v>2.1635345035280161E-2</v>
+        <v>2.1635219661320908E-2</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.35">
@@ -4623,7 +4623,7 @@
         <v>38717</v>
       </c>
       <c r="B523">
-        <v>-2.5957117246615619E-2</v>
+        <v>-2.595698536917539E-2</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.35">
@@ -4631,7 +4631,7 @@
         <v>38748</v>
       </c>
       <c r="B524">
-        <v>-1.1360392460995451E-2</v>
+        <v>-1.136045495320624E-2</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.35">
@@ -4639,7 +4639,7 @@
         <v>38776</v>
       </c>
       <c r="B525">
-        <v>-2.0939201710288631E-2</v>
+        <v>-2.0939199227808961E-2</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.35">
@@ -4647,7 +4647,7 @@
         <v>38807</v>
       </c>
       <c r="B526">
-        <v>1.661530696824124E-2</v>
+        <v>1.6615194164316369E-2</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.35">
@@ -4655,7 +4655,7 @@
         <v>38837</v>
       </c>
       <c r="B527">
-        <v>-1.6540731680206072E-2</v>
+        <v>-1.6540637974515059E-2</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.35">
@@ -4663,7 +4663,7 @@
         <v>38868</v>
       </c>
       <c r="B528">
-        <v>-3.7714019579255659E-3</v>
+        <v>-3.771369093985517E-3</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.35">
@@ -4671,7 +4671,7 @@
         <v>38898</v>
       </c>
       <c r="B529">
-        <v>7.4343213508136861E-3</v>
+        <v>7.4345078459413386E-3</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.35">
@@ -4679,7 +4679,7 @@
         <v>38929</v>
       </c>
       <c r="B530">
-        <v>5.5213147632133253E-3</v>
+        <v>5.5213154835326711E-3</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.35">
@@ -4687,7 +4687,7 @@
         <v>38960</v>
       </c>
       <c r="B531">
-        <v>-1.206318809573179E-2</v>
+        <v>-1.2063191637566211E-2</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.35">
@@ -4695,7 +4695,7 @@
         <v>38990</v>
       </c>
       <c r="B532">
-        <v>9.3152167026735178E-3</v>
+        <v>9.311467545605346E-3</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.35">
@@ -4703,7 +4703,7 @@
         <v>39021</v>
       </c>
       <c r="B533">
-        <v>-8.6408373655742846E-3</v>
+        <v>-8.6408370891485412E-3</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.35">
@@ -4711,7 +4711,7 @@
         <v>39051</v>
       </c>
       <c r="B534">
-        <v>-1.2531569052496441E-4</v>
+        <v>-1.2531245405731151E-4</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.35">
@@ -4719,7 +4719,7 @@
         <v>39082</v>
       </c>
       <c r="B535">
-        <v>-1.305598006956776E-2</v>
+        <v>-1.305598200813851E-2</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.35">
@@ -4727,7 +4727,7 @@
         <v>39113</v>
       </c>
       <c r="B536">
-        <v>-7.281596161206081E-3</v>
+        <v>-7.2815923831383161E-3</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.35">
@@ -4735,7 +4735,7 @@
         <v>39141</v>
       </c>
       <c r="B537">
-        <v>7.19447145809822E-3</v>
+        <v>7.1944759490428466E-3</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.35">
@@ -4743,7 +4743,7 @@
         <v>39172</v>
       </c>
       <c r="B538">
-        <v>1.9025482954877079E-4</v>
+        <v>1.902570241484117E-4</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.35">
@@ -4751,7 +4751,7 @@
         <v>39202</v>
       </c>
       <c r="B539">
-        <v>1.1719464659687781E-2</v>
+        <v>1.1719470462399481E-2</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.35">
@@ -4759,7 +4759,7 @@
         <v>39233</v>
       </c>
       <c r="B540">
-        <v>-6.7589748006065958E-4</v>
+        <v>-6.7589878652715707E-4</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.35">
@@ -4767,7 +4767,7 @@
         <v>39263</v>
       </c>
       <c r="B541">
-        <v>5.1865004318971709E-3</v>
+        <v>5.1864994655942357E-3</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.35">
@@ -4807,7 +4807,7 @@
         <v>39416</v>
       </c>
       <c r="B546">
-        <v>1.462992227083194E-2</v>
+        <v>1.4629967197409799E-2</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.35">
@@ -5039,7 +5039,7 @@
         <v>40298</v>
       </c>
       <c r="B575">
-        <v>-3.0511390416574261E-2</v>
+        <v>-3.0511327973710641E-2</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.35">
@@ -5087,7 +5087,7 @@
         <v>40482</v>
       </c>
       <c r="B581">
-        <v>-3.7371817514778101E-3</v>
+        <v>-3.7373592137411381E-3</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.35">
@@ -5159,7 +5159,7 @@
         <v>40755</v>
       </c>
       <c r="B590">
-        <v>1.9397280333344261E-2</v>
+        <v>1.9402496237606821E-2</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.35">
@@ -5167,7 +5167,7 @@
         <v>40786</v>
       </c>
       <c r="B591">
-        <v>3.5697498442822023E-2</v>
+        <v>3.5703204050831772E-2</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.35">
@@ -5175,7 +5175,7 @@
         <v>40816</v>
       </c>
       <c r="B592">
-        <v>2.0316237717669629E-2</v>
+        <v>2.033732256186109E-2</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.35">
@@ -5183,7 +5183,7 @@
         <v>40847</v>
       </c>
       <c r="B593">
-        <v>-6.8441719488706032E-3</v>
+        <v>-6.8477813961467793E-3</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.35">
@@ -5191,7 +5191,7 @@
         <v>40877</v>
       </c>
       <c r="B594">
-        <v>-1.7329519976544911E-3</v>
+        <v>-1.775300230760011E-3</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.35">
@@ -5199,7 +5199,7 @@
         <v>40908</v>
       </c>
       <c r="B595">
-        <v>4.4070249779014064E-3</v>
+        <v>4.4146099211543454E-3</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.35">
@@ -5207,7 +5207,7 @@
         <v>40939</v>
       </c>
       <c r="B596">
-        <v>-1.930192009148707E-3</v>
+        <v>-1.9274070374293709E-3</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.35">
@@ -5215,7 +5215,7 @@
         <v>40968</v>
       </c>
       <c r="B597">
-        <v>-1.2858347389062479E-2</v>
+        <v>-1.288492732135514E-2</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.35">
@@ -5223,7 +5223,7 @@
         <v>40999</v>
       </c>
       <c r="B598">
-        <v>9.8698516614186271E-3</v>
+        <v>9.9075161449765428E-3</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.35">
@@ -5231,7 +5231,7 @@
         <v>41029</v>
       </c>
       <c r="B599">
-        <v>-1.6206448619052649E-3</v>
+        <v>-1.6485447363952679E-3</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.35">
@@ -5239,7 +5239,7 @@
         <v>41060</v>
       </c>
       <c r="B600">
-        <v>1.292444691519953E-2</v>
+        <v>1.2859955838418161E-2</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.35">
@@ -5247,7 +5247,7 @@
         <v>41090</v>
       </c>
       <c r="B601">
-        <v>4.2510846434085509E-3</v>
+        <v>4.2872938249122064E-3</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.35">
@@ -5255,7 +5255,7 @@
         <v>41121</v>
       </c>
       <c r="B602">
-        <v>-4.8117649301756297E-3</v>
+        <v>-4.8254235200149249E-3</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.35">
@@ -5263,7 +5263,7 @@
         <v>41152</v>
       </c>
       <c r="B603">
-        <v>2.034622459170184E-2</v>
+        <v>2.0318101286093269E-2</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.35">
@@ -5271,7 +5271,7 @@
         <v>41182</v>
       </c>
       <c r="B604">
-        <v>-1.133309213880411E-2</v>
+        <v>-1.135495762987522E-2</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.35">
@@ -5279,7 +5279,7 @@
         <v>41213</v>
       </c>
       <c r="B605">
-        <v>1.271801119584003E-2</v>
+        <v>1.2698728088366751E-2</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.35">
@@ -5287,7 +5287,7 @@
         <v>41243</v>
       </c>
       <c r="B606">
-        <v>2.5669487145802499E-3</v>
+        <v>2.5349427168945889E-3</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.35">
@@ -5295,7 +5295,7 @@
         <v>41274</v>
       </c>
       <c r="B607">
-        <v>-1.1915248178488391E-2</v>
+        <v>-1.188909401357436E-2</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.35">
@@ -5303,7 +5303,7 @@
         <v>41305</v>
       </c>
       <c r="B608">
-        <v>-3.882574000795828E-3</v>
+        <v>-3.9083443203443979E-3</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.35">
@@ -5311,7 +5311,7 @@
         <v>41333</v>
       </c>
       <c r="B609">
-        <v>-4.5691420037245398E-4</v>
+        <v>-4.5340791192867089E-4</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.35">
@@ -5319,7 +5319,7 @@
         <v>41364</v>
       </c>
       <c r="B610">
-        <v>-1.345543685837752E-2</v>
+        <v>-1.3452908163288851E-2</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.35">
@@ -5327,7 +5327,7 @@
         <v>41394</v>
       </c>
       <c r="B611">
-        <v>-1.003827175007219E-2</v>
+        <v>-1.00519057351735E-2</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.35">
@@ -5335,7 +5335,7 @@
         <v>41425</v>
       </c>
       <c r="B612">
-        <v>6.5438872861036529E-3</v>
+        <v>6.52359446038666E-3</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.35">
@@ -5343,7 +5343,7 @@
         <v>41455</v>
       </c>
       <c r="B613">
-        <v>-8.9650894842456235E-3</v>
+        <v>-8.9597383322519396E-3</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.35">
@@ -5351,7 +5351,7 @@
         <v>41486</v>
       </c>
       <c r="B614">
-        <v>-1.5363187287658991E-2</v>
+        <v>-1.535175307013757E-2</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.35">
@@ -5359,7 +5359,7 @@
         <v>41517</v>
       </c>
       <c r="B615">
-        <v>-2.8058357664614221E-3</v>
+        <v>-2.794462161174141E-3</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.35">
@@ -5367,7 +5367,7 @@
         <v>41547</v>
       </c>
       <c r="B616">
-        <v>-7.180000944474331E-3</v>
+        <v>-7.1750013954982109E-3</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.35">
@@ -5375,7 +5375,7 @@
         <v>41578</v>
       </c>
       <c r="B617">
-        <v>1.5792191720053601E-2</v>
+        <v>1.578747109216419E-2</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.35">
@@ -5383,7 +5383,7 @@
         <v>41608</v>
       </c>
       <c r="B618">
-        <v>2.4027875768994358E-2</v>
+        <v>2.4008515246568021E-2</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.35">
@@ -5391,7 +5391,7 @@
         <v>41639</v>
       </c>
       <c r="B619">
-        <v>-3.154837460331419E-3</v>
+        <v>-3.157478902787308E-3</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.35">
@@ -5399,7 +5399,7 @@
         <v>41670</v>
       </c>
       <c r="B620">
-        <v>-3.3616264761029968E-2</v>
+        <v>-3.3625607264589158E-2</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.35">
@@ -5407,7 +5407,7 @@
         <v>41698</v>
       </c>
       <c r="B621">
-        <v>-2.9868030822238069E-3</v>
+        <v>-2.9896284186407829E-3</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.35">
@@ -5415,7 +5415,7 @@
         <v>41729</v>
       </c>
       <c r="B622">
-        <v>1.2287380455430119E-2</v>
+        <v>1.2304429861377029E-2</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.35">
@@ -5423,7 +5423,7 @@
         <v>41759</v>
       </c>
       <c r="B623">
-        <v>-2.0013301069652861E-4</v>
+        <v>-2.197593202183275E-4</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.35">
@@ -5431,7 +5431,7 @@
         <v>41790</v>
       </c>
       <c r="B624">
-        <v>-1.346440775259377E-2</v>
+        <v>-1.3475871306959609E-2</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.35">
@@ -5439,7 +5439,7 @@
         <v>41820</v>
       </c>
       <c r="B625">
-        <v>-1.4962941008426789E-2</v>
+        <v>-1.4974616524904409E-2</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.35">
@@ -5447,7 +5447,7 @@
         <v>41851</v>
       </c>
       <c r="B626">
-        <v>3.904353122109093E-3</v>
+        <v>3.932811915372085E-3</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.35">
@@ -5455,7 +5455,7 @@
         <v>41882</v>
       </c>
       <c r="B627">
-        <v>9.9705083272097414E-3</v>
+        <v>9.9468180957349092E-3</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.35">
@@ -5463,7 +5463,7 @@
         <v>41912</v>
       </c>
       <c r="B628">
-        <v>1.29604796687889E-2</v>
+        <v>1.2960733471295741E-2</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.35">
@@ -5471,7 +5471,7 @@
         <v>41943</v>
       </c>
       <c r="B629">
-        <v>1.6509525690244591E-2</v>
+        <v>1.6537727083035209E-2</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.35">
@@ -5479,7 +5479,7 @@
         <v>41973</v>
       </c>
       <c r="B630">
-        <v>1.020704251960926E-2</v>
+        <v>1.020687310306195E-2</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.35">
@@ -5487,7 +5487,7 @@
         <v>42004</v>
       </c>
       <c r="B631">
-        <v>-7.5627493050692551E-3</v>
+        <v>-7.5896385533070921E-3</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.35">
@@ -5495,7 +5495,7 @@
         <v>42035</v>
       </c>
       <c r="B632">
-        <v>-1.6395545542050988E-2</v>
+        <v>-1.6385563773456409E-2</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.35">
@@ -5503,7 +5503,7 @@
         <v>42063</v>
       </c>
       <c r="B633">
-        <v>-1.3076917676628701E-3</v>
+        <v>-1.4074923671263881E-3</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.35">
@@ -5511,7 +5511,7 @@
         <v>42094</v>
       </c>
       <c r="B634">
-        <v>-7.4133988068764145E-4</v>
+        <v>-7.5034220571204915E-4</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.35">
@@ -5519,7 +5519,7 @@
         <v>42124</v>
       </c>
       <c r="B635">
-        <v>3.740835938114351E-3</v>
+        <v>3.7463686269120708E-3</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.35">
@@ -5527,7 +5527,7 @@
         <v>42155</v>
       </c>
       <c r="B636">
-        <v>1.719867826541589E-3</v>
+        <v>1.6872345501275259E-3</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.35">
@@ -5535,7 +5535,7 @@
         <v>42185</v>
       </c>
       <c r="B637">
-        <v>2.6566731260078691E-2</v>
+        <v>2.657160642685483E-2</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.35">
@@ -5559,7 +5559,7 @@
         <v>42277</v>
       </c>
       <c r="B640">
-        <v>3.1761624292927809E-2</v>
+        <v>3.1761624292636841E-2</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.35">
@@ -5639,7 +5639,7 @@
         <v>42582</v>
       </c>
       <c r="B650">
-        <v>1.308316902997361E-3</v>
+        <v>9.7192505486775466E-4</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.35">
@@ -5647,7 +5647,7 @@
         <v>42613</v>
       </c>
       <c r="B651">
-        <v>-2.964234632149974E-2</v>
+        <v>-3.1567406870681033E-2</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.35">
@@ -5655,7 +5655,7 @@
         <v>42643</v>
       </c>
       <c r="B652">
-        <v>-2.603306682544539E-2</v>
+        <v>-2.6037610543293978E-2</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.35">
@@ -5663,7 +5663,7 @@
         <v>42674</v>
       </c>
       <c r="B653">
-        <v>1.0090199216702929E-2</v>
+        <v>1.0171903386800451E-2</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.35">
@@ -5671,7 +5671,7 @@
         <v>42704</v>
       </c>
       <c r="B654">
-        <v>-1.2054973788534569E-2</v>
+        <v>-1.2850087730217509E-2</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.35">
@@ -5679,7 +5679,7 @@
         <v>42735</v>
       </c>
       <c r="B655">
-        <v>1.115966401594516E-2</v>
+        <v>1.198314070552454E-2</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.35">
@@ -5687,7 +5687,7 @@
         <v>42766</v>
       </c>
       <c r="B656">
-        <v>-2.9868597913768492E-2</v>
+        <v>-2.8882641845600451E-2</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.35">
@@ -5695,7 +5695,7 @@
         <v>42794</v>
       </c>
       <c r="B657">
-        <v>1.2821666919436441E-2</v>
+        <v>1.218010573816729E-2</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.35">
@@ -5703,7 +5703,7 @@
         <v>42825</v>
       </c>
       <c r="B658">
-        <v>2.5507802308663311E-3</v>
+        <v>2.445864062299906E-3</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.35">
@@ -5711,7 +5711,7 @@
         <v>42855</v>
       </c>
       <c r="B659">
-        <v>1.2598018821439761E-2</v>
+        <v>1.2263827447164999E-2</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.35">
@@ -5719,7 +5719,7 @@
         <v>42886</v>
       </c>
       <c r="B660">
-        <v>1.6446129413369891E-2</v>
+        <v>1.604364101873525E-2</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.35">
@@ -5727,7 +5727,7 @@
         <v>42916</v>
       </c>
       <c r="B661">
-        <v>6.3493541870043371E-3</v>
+        <v>6.5341187670646932E-3</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.35">
@@ -5735,7 +5735,7 @@
         <v>42947</v>
       </c>
       <c r="B662">
-        <v>-4.1912411427199939E-3</v>
+        <v>-4.0556539393875012E-3</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.35">
@@ -5743,7 +5743,7 @@
         <v>42978</v>
       </c>
       <c r="B663">
-        <v>1.6695336032729539E-2</v>
+        <v>1.6753866625747581E-2</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.35">
@@ -5751,7 +5751,7 @@
         <v>43008</v>
       </c>
       <c r="B664">
-        <v>-1.5321652582026481E-2</v>
+        <v>-1.533162480612804E-2</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.35">
@@ -5759,7 +5759,7 @@
         <v>43039</v>
       </c>
       <c r="B665">
-        <v>2.2271270597752371E-2</v>
+        <v>2.2239807831155711E-2</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.35">
@@ -5767,7 +5767,7 @@
         <v>43069</v>
       </c>
       <c r="B666">
-        <v>2.9503967037273059E-2</v>
+        <v>2.947671600155248E-2</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.35">
@@ -5775,7 +5775,7 @@
         <v>43100</v>
       </c>
       <c r="B667">
-        <v>-1.183767005468271E-2</v>
+        <v>-1.1904754031161551E-2</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.35">
@@ -5783,7 +5783,7 @@
         <v>43131</v>
       </c>
       <c r="B668">
-        <v>-3.0660140227048441E-2</v>
+        <v>-3.0602071733449619E-2</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.35">
@@ -5791,7 +5791,7 @@
         <v>43159</v>
       </c>
       <c r="B669">
-        <v>-2.8874158551455281E-3</v>
+        <v>-2.87024956571931E-3</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.35">
@@ -5799,7 +5799,7 @@
         <v>43190</v>
       </c>
       <c r="B670">
-        <v>-6.0722630017022916E-3</v>
+        <v>-6.1196207525103137E-3</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.35">
@@ -5807,7 +5807,7 @@
         <v>43220</v>
       </c>
       <c r="B671">
-        <v>-4.2599632418650418E-2</v>
+        <v>-4.2542196495165469E-2</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.35">
@@ -5815,7 +5815,7 @@
         <v>43251</v>
       </c>
       <c r="B672">
-        <v>-1.5368072302987991E-2</v>
+        <v>-1.5385550198207811E-2</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.35">
@@ -5823,7 +5823,7 @@
         <v>43281</v>
       </c>
       <c r="B673">
-        <v>-4.173136528780888E-3</v>
+        <v>-4.063952172377993E-3</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.35">
@@ -5831,7 +5831,7 @@
         <v>43312</v>
       </c>
       <c r="B674">
-        <v>1.116561924504318E-2</v>
+        <v>1.1390979247960229E-2</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.35">
@@ -5839,7 +5839,7 @@
         <v>43343</v>
       </c>
       <c r="B675">
-        <v>-2.7526493896323421E-2</v>
+        <v>-2.8118610531149741E-2</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.35">
@@ -5847,7 +5847,7 @@
         <v>43373</v>
       </c>
       <c r="B676">
-        <v>-8.9747130027766232E-3</v>
+        <v>-9.9223679653484033E-3</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.35">
@@ -5855,7 +5855,7 @@
         <v>43404</v>
       </c>
       <c r="B677">
-        <v>4.6334240421289252E-2</v>
+        <v>4.6134610258628042E-2</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.35">
@@ -5863,7 +5863,7 @@
         <v>43434</v>
       </c>
       <c r="B678">
-        <v>1.8943225762814861E-2</v>
+        <v>1.9596610399750618E-2</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.35">
@@ -5871,7 +5871,7 @@
         <v>43465</v>
       </c>
       <c r="B679">
-        <v>1.6997149677212688E-2</v>
+        <v>1.706283456325659E-2</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.35">
@@ -5879,7 +5879,7 @@
         <v>43496</v>
       </c>
       <c r="B680">
-        <v>-4.6391976915833688E-2</v>
+        <v>-4.595588825145816E-2</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.35">
@@ -5887,7 +5887,7 @@
         <v>43524</v>
       </c>
       <c r="B681">
-        <v>-5.9260281050336067E-3</v>
+        <v>-4.2607685020829497E-3</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.35">
@@ -5895,7 +5895,7 @@
         <v>43555</v>
       </c>
       <c r="B682">
-        <v>1.5353494695048729E-2</v>
+        <v>1.6801476907313082E-2</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.35">
@@ -5903,7 +5903,7 @@
         <v>43585</v>
       </c>
       <c r="B683">
-        <v>2.6357920991407661E-2</v>
+        <v>2.6922190091646821E-2</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.35">
@@ -5911,7 +5911,7 @@
         <v>43616</v>
       </c>
       <c r="B684">
-        <v>7.8399514353624661E-3</v>
+        <v>7.9870818940251387E-3</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.35">
@@ -5919,7 +5919,7 @@
         <v>43646</v>
       </c>
       <c r="B685">
-        <v>1.1380858560258691E-2</v>
+        <v>1.1045057635069669E-2</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.35">
@@ -5927,7 +5927,7 @@
         <v>43677</v>
       </c>
       <c r="B686">
-        <v>9.2711897680376708E-3</v>
+        <v>9.5761450427266654E-3</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.35">
@@ -5935,7 +5935,7 @@
         <v>43708</v>
       </c>
       <c r="B687">
-        <v>1.9999400538907329E-2</v>
+        <v>1.937131378849959E-2</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.35">
@@ -5943,7 +5943,7 @@
         <v>43738</v>
       </c>
       <c r="B688">
-        <v>3.1019432063641269E-2</v>
+        <v>3.047606539973087E-2</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.35">
@@ -5951,7 +5951,7 @@
         <v>43769</v>
       </c>
       <c r="B689">
-        <v>2.1393506897660119E-2</v>
+        <v>2.0752397898740341E-2</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.35">
@@ -5959,7 +5959,7 @@
         <v>43799</v>
       </c>
       <c r="B690">
-        <v>-1.599379794309868E-2</v>
+        <v>-1.6207038157380279E-2</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.35">
@@ -5967,7 +5967,199 @@
         <v>43830</v>
       </c>
       <c r="B691">
-        <v>-1.8088961225043439E-5</v>
+        <v>2.2132286055268069E-4</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A692" s="2">
+        <v>43861</v>
+      </c>
+      <c r="B692">
+        <v>-1.6278472886173938E-2</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A693" s="2">
+        <v>43890</v>
+      </c>
+      <c r="B693">
+        <v>-1.485118779359099E-2</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A694" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B694">
+        <v>3.4704196189957071E-2</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A695" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B695">
+        <v>-9.1318050014388419E-3</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A696" s="2">
+        <v>43982</v>
+      </c>
+      <c r="B696">
+        <v>-3.6055713658823603E-2</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A697" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B697">
+        <v>2.6909827807067781E-3</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A698" s="2">
+        <v>44043</v>
+      </c>
+      <c r="B698">
+        <v>-5.4351404239027352E-2</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A699" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B699">
+        <v>-8.834525322533672E-2</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A700" s="2">
+        <v>44104</v>
+      </c>
+      <c r="B700">
+        <v>-4.0469553707122574E-3</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A701" s="2">
+        <v>44135</v>
+      </c>
+      <c r="B701">
+        <v>1.006428172646894E-2</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A702" s="2">
+        <v>44165</v>
+      </c>
+      <c r="B702">
+        <v>-0.1191946138730863</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A703" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B703">
+        <v>-5.0214603684233139E-2</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A704" s="2">
+        <v>44227</v>
+      </c>
+      <c r="B704">
+        <v>-7.5317502940417808E-2</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A705" s="2">
+        <v>44255</v>
+      </c>
+      <c r="B705">
+        <v>4.8238485955684793E-2</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A706" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B706">
+        <v>4.4257162133130419E-2</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A707" s="2">
+        <v>44316</v>
+      </c>
+      <c r="B707">
+        <v>7.134648608939323E-3</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A708" s="2">
+        <v>44347</v>
+      </c>
+      <c r="B708">
+        <v>2.5823453745383359E-2</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A709" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B709">
+        <v>-4.0203229063837047E-2</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A710" s="2">
+        <v>44408</v>
+      </c>
+      <c r="B710">
+        <v>6.2686911286363479E-3</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A711" s="2">
+        <v>44439</v>
+      </c>
+      <c r="B711">
+        <v>-2.729731576686194E-3</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A712" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B712">
+        <v>-1.6707475141512499E-2</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A713" s="2">
+        <v>44500</v>
+      </c>
+      <c r="B713">
+        <v>2.658291587968694E-2</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A714" s="2">
+        <v>44530</v>
+      </c>
+      <c r="B714">
+        <v>4.4861535487128963E-2</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A715" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B715">
+        <v>2.928041289201604E-2</v>
       </c>
     </row>
   </sheetData>
